--- a/cos_n_Calculator/JMO_cos_n_calculator_20251013.xlsx
+++ b/cos_n_Calculator/JMO_cos_n_calculator_20251013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuliusMuschaweck\Documents\BUSINESS\OptikDesign\JMOptics\Kurse\IlluminationOptics\Online-Kurse\ModelingSourcesAndSystems\Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuliusMuschaweck\Documents\BUSINESS\Software_JM\OpenSource\IlluminationDesignTools\cos_n_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14448DE6-C1A6-4B01-BE50-1B766B6C976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E11A22-F885-4E5A-9C0B-6F6C0D733103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{2404FF1C-8706-4BBF-B845-1757FA66F213}"/>
+    <workbookView xWindow="-30264" yWindow="840" windowWidth="30360" windowHeight="16440" xr2:uid="{2404FF1C-8706-4BBF-B845-1757FA66F213}"/>
   </bookViews>
   <sheets>
     <sheet name="cosn" sheetId="2" r:id="rId1"/>
@@ -3076,7 +3076,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FWHM 16.0°</c:v>
+                  <c:v>FWHM 90.0°</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3652,547 +3652,547 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="184"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.7524718414124151E-33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4445743601939591E-125</c:v>
+                  <c:v>3.0458649045212951E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2429945828898957E-104</c:v>
+                  <c:v>1.2179748700878812E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5579816002341329E-91</c:v>
+                  <c:v>2.7390523158633438E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0886471808131194E-82</c:v>
+                  <c:v>4.8659656292148606E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7892403486357351E-76</c:v>
+                  <c:v>7.5961234938959551E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0648779189638164E-70</c:v>
+                  <c:v>1.0926199633097166E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6257689559823468E-65</c:v>
+                  <c:v>1.4852136862001758E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9855385563197709E-61</c:v>
+                  <c:v>1.9369152030840622E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8850240872812441E-58</c:v>
+                  <c:v>2.447174185242321E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2888539247859851E-54</c:v>
+                  <c:v>3.0153689607045807E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0258785005006591E-51</c:v>
+                  <c:v>3.6408072716606302E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5018432797075267E-49</c:v>
+                  <c:v>4.322727117869956E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1968122081335141E-46</c:v>
+                  <c:v>5.0602976850416446E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.074072704508442E-44</c:v>
+                  <c:v>5.8526203570536582E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4831821166632991E-42</c:v>
+                  <c:v>6.6987298107780646E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1523505442775582E-40</c:v>
+                  <c:v>7.597595192178698E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4033535227315424E-38</c:v>
+                  <c:v>8.548121372247916E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.1046870909461545E-37</c:v>
+                  <c:v>9.5491502812526247E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8680270855202653E-35</c:v>
+                  <c:v>0.10599462319663902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.4414908712928083E-34</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5837158273306758E-32</c:v>
+                  <c:v>0.12842758726130291</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9752919472960749E-31</c:v>
+                  <c:v>0.14033009983067429</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1846492814285038E-29</c:v>
+                  <c:v>0.15267081477050143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0386773714315746E-28</c:v>
+                  <c:v>0.16543469682057083</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0788065817813101E-27</c:v>
+                  <c:v>0.17860619515673026</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1198206324568006E-26</c:v>
+                  <c:v>0.19216926233717083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9265990366534905E-25</c:v>
+                  <c:v>0.20610737385376335</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3050994094741039E-24</c:v>
+                  <c:v>0.22040354826462655</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1793115795918545E-23</c:v>
+                  <c:v>0.23504036788339755</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.6124888011352357E-22</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7676739327806769E-21</c:v>
+                  <c:v>0.26526421860705468</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8369166203881151E-20</c:v>
+                  <c:v>0.28081442660546113</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9779463464769173E-19</c:v>
+                  <c:v>0.29663167846209992</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2822104113234797E-18</c:v>
+                  <c:v>0.31269670329204391</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.7572252501993409E-18</c:v>
+                  <c:v>0.32898992833716567</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3948306122125396E-17</c:v>
+                  <c:v>0.34549150281252622</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3389928393251342E-16</c:v>
+                  <c:v>0.36218132209150039</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.172784576672525E-15</c:v>
+                  <c:v>0.37903905220016604</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.5547235495362182E-15</c:v>
+                  <c:v>0.3960441545911203</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4912906858788226E-14</c:v>
+                  <c:v>0.41317591116653474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0604407868919944E-13</c:v>
+                  <c:v>0.43041344951996718</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2929707888527282E-13</c:v>
+                  <c:v>0.44773576836617318</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6560836445449307E-12</c:v>
+                  <c:v>0.46512176312793718</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.0987759338418334E-12</c:v>
+                  <c:v>0.48255025164874954</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1476705522810528E-11</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.2432873549647532E-11</c:v>
+                  <c:v>0.51744974835125057</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3430391966216697E-10</c:v>
+                  <c:v>0.53487823687206271</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.2793048550301895E-10</c:v>
+                  <c:v>0.55226423163382665</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.1747979039233984E-9</c:v>
+                  <c:v>0.56958655048003282</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.2558038685430222E-9</c:v>
+                  <c:v>0.58682408883346504</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7344681535928216E-8</c:v>
+                  <c:v>0.60395584540887959</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.6400424502856311E-8</c:v>
+                  <c:v>0.62096094779983391</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1988789210395961E-7</c:v>
+                  <c:v>0.63781867790849944</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9945094932764976E-7</c:v>
+                  <c:v>0.65450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.2368250513669133E-7</c:v>
+                  <c:v>0.67101007166283433</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6935378171519319E-6</c:v>
+                  <c:v>0.68730329670795587</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.8405864742792049E-6</c:v>
+                  <c:v>0.70336832153790008</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.4463237360723854E-6</c:v>
+                  <c:v>0.71918557339453859</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8025972811456483E-5</c:v>
+                  <c:v>0.73473578139294538</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.7356530686863316E-5</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.5219598289675234E-5</c:v>
+                  <c:v>0.76495963211660234</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4724369164435084E-4</c:v>
+                  <c:v>0.7795964517353734</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.8035854754709195E-4</c:v>
+                  <c:v>0.79389262614623657</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.1949212716019468E-4</c:v>
+                  <c:v>0.8078307376628292</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.3720812007158075E-4</c:v>
+                  <c:v>0.82139380484326951</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6469360279551359E-3</c:v>
+                  <c:v>0.83456530317942901</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8202086754227488E-3</c:v>
+                  <c:v>0.84732918522949874</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.7078094164431355E-3</c:v>
+                  <c:v>0.85966990016932554</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.6638767614166286E-3</c:v>
+                  <c:v>0.87157241273869712</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2170800719542664E-2</c:v>
+                  <c:v>0.88302222155948906</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8861243512506495E-2</c:v>
+                  <c:v>0.89400537680336101</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.853201938696024E-2</c:v>
+                  <c:v>0.90450849718747361</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2143202458471939E-2</c:v>
+                  <c:v>0.9145187862775207</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.079514406277442E-2</c:v>
+                  <c:v>0.92402404807821303</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.5676571194000947E-2</c:v>
+                  <c:v>0.93301270189221941</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.11797904462036872</c:v>
+                  <c:v>0.94147379642946349</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.15877701113633599</c:v>
+                  <c:v>0.94939702314958352</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.20887836294174889</c:v>
+                  <c:v>0.95677272882130049</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.26865722575302292</c:v>
+                  <c:v>0.96359192728339371</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.33788756097468126</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.41560164280815265</c:v>
+                  <c:v>0.97552825814757682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.49999999999999994</c:v>
+                  <c:v>0.98063084796915956</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.58843767972580707</c:v>
+                  <c:v>0.98514786313799818</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.67750501850774181</c:v>
+                  <c:v>0.98907380036690273</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.76320976478986391</c:v>
+                  <c:v>0.99240387650610407</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.84125275081380402</c:v>
+                  <c:v>0.99513403437078507</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.90737368630960291</c:v>
+                  <c:v>0.99726094768413653</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.95772994812448309</c:v>
+                  <c:v>0.99878202512991221</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98926235142442132</c:v>
+                  <c:v>0.99969541350954794</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.98926235142442132</c:v>
+                  <c:v>0.99969541350954794</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.95772994812448309</c:v>
+                  <c:v>0.99878202512991221</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.90737368630960291</c:v>
+                  <c:v>0.99726094768413653</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.84125275081380402</c:v>
+                  <c:v>0.99513403437078507</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.76320976478986391</c:v>
+                  <c:v>0.99240387650610407</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.67750501850774181</c:v>
+                  <c:v>0.98907380036690273</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.58843767972580707</c:v>
+                  <c:v>0.98514786313799818</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.49999999999999994</c:v>
+                  <c:v>0.98063084796915956</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.41560164280815265</c:v>
+                  <c:v>0.97552825814757682</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.33788756097468126</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.26865722575302292</c:v>
+                  <c:v>0.96359192728339371</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.20887836294174889</c:v>
+                  <c:v>0.95677272882130049</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.15877701113633599</c:v>
+                  <c:v>0.94939702314958352</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.11797904462036872</c:v>
+                  <c:v>0.94147379642946349</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.5676571194000947E-2</c:v>
+                  <c:v>0.93301270189221941</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.079514406277442E-2</c:v>
+                  <c:v>0.92402404807821303</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.2143202458471939E-2</c:v>
+                  <c:v>0.9145187862775207</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.853201938696024E-2</c:v>
+                  <c:v>0.90450849718747361</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.8861243512506495E-2</c:v>
+                  <c:v>0.89400537680336101</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.2170800719542664E-2</c:v>
+                  <c:v>0.88302222155948906</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.6638767614166286E-3</c:v>
+                  <c:v>0.87157241273869712</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.7078094164431355E-3</c:v>
+                  <c:v>0.85966990016932554</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.8202086754227488E-3</c:v>
+                  <c:v>0.84732918522949874</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.6469360279551359E-3</c:v>
+                  <c:v>0.83456530317942901</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.3720812007158075E-4</c:v>
+                  <c:v>0.82139380484326951</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.1949212716019468E-4</c:v>
+                  <c:v>0.8078307376628292</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.8035854754709195E-4</c:v>
+                  <c:v>0.79389262614623657</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.4724369164435084E-4</c:v>
+                  <c:v>0.7795964517353734</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.5219598289675234E-5</c:v>
+                  <c:v>0.76495963211660234</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.7356530686863316E-5</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.8025972811456483E-5</c:v>
+                  <c:v>0.73473578139294538</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.4463237360723854E-6</c:v>
+                  <c:v>0.71918557339453859</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.8405864742792049E-6</c:v>
+                  <c:v>0.70336832153790008</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.6935378171519319E-6</c:v>
+                  <c:v>0.68730329670795587</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7.2368250513669133E-7</c:v>
+                  <c:v>0.67101007166283433</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.9945094932764976E-7</c:v>
+                  <c:v>0.65450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1988789210395961E-7</c:v>
+                  <c:v>0.63781867790849944</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.6400424502856311E-8</c:v>
+                  <c:v>0.62096094779983391</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.7344681535928216E-8</c:v>
+                  <c:v>0.60395584540887959</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.2558038685430222E-9</c:v>
+                  <c:v>0.58682408883346504</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.1747979039233984E-9</c:v>
+                  <c:v>0.56958655048003282</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.2793048550301895E-10</c:v>
+                  <c:v>0.55226423163382665</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.3430391966216697E-10</c:v>
+                  <c:v>0.53487823687206271</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.2432873549647532E-11</c:v>
+                  <c:v>0.51744974835125057</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.1476705522810528E-11</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.0987759338418334E-12</c:v>
+                  <c:v>0.48255025164874954</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.6560836445449307E-12</c:v>
+                  <c:v>0.46512176312793718</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.2929707888527282E-13</c:v>
+                  <c:v>0.44773576836617318</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.0604407868919944E-13</c:v>
+                  <c:v>0.43041344951996718</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.4912906858788226E-14</c:v>
+                  <c:v>0.41317591116653474</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.5547235495362182E-15</c:v>
+                  <c:v>0.3960441545911203</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.172784576672525E-15</c:v>
+                  <c:v>0.37903905220016604</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.3389928393251342E-16</c:v>
+                  <c:v>0.36218132209150039</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.3948306122125396E-17</c:v>
+                  <c:v>0.34549150281252622</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.7572252501993409E-18</c:v>
+                  <c:v>0.32898992833716567</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2822104113234797E-18</c:v>
+                  <c:v>0.31269670329204391</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.9779463464769173E-19</c:v>
+                  <c:v>0.29663167846209992</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.8369166203881151E-20</c:v>
+                  <c:v>0.28081442660546113</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.7676739327806769E-21</c:v>
+                  <c:v>0.26526421860705468</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4.6124888011352357E-22</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>5.1793115795918545E-23</c:v>
+                  <c:v>0.23504036788339755</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5.3050994094741039E-24</c:v>
+                  <c:v>0.22040354826462655</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>4.9265990366534905E-25</c:v>
+                  <c:v>0.20610737385376335</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>4.1198206324568006E-26</c:v>
+                  <c:v>0.19216926233717083</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.0788065817813101E-27</c:v>
+                  <c:v>0.17860619515673026</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.0386773714315746E-28</c:v>
+                  <c:v>0.16543469682057083</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.1846492814285038E-29</c:v>
+                  <c:v>0.15267081477050143</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>5.9752919472960749E-31</c:v>
+                  <c:v>0.14033009983067429</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.5837158273306758E-32</c:v>
+                  <c:v>0.12842758726130291</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>9.4414908712928083E-34</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.8680270855202653E-35</c:v>
+                  <c:v>0.10599462319663902</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7.1046870909461545E-37</c:v>
+                  <c:v>9.5491502812526247E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.4033535227315424E-38</c:v>
+                  <c:v>8.548121372247916E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.1523505442775582E-40</c:v>
+                  <c:v>7.597595192178698E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.4831821166632991E-42</c:v>
+                  <c:v>6.6987298107780646E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.074072704508442E-44</c:v>
+                  <c:v>5.8526203570536582E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.1968122081335141E-46</c:v>
+                  <c:v>5.0602976850416446E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.5018432797075267E-49</c:v>
+                  <c:v>4.322727117869956E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.0258785005006591E-51</c:v>
+                  <c:v>3.6408072716606302E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.2888539247859851E-54</c:v>
+                  <c:v>3.0153689607045807E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.8850240872812441E-58</c:v>
+                  <c:v>2.447174185242321E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.9855385563197709E-61</c:v>
+                  <c:v>1.9369152030840622E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.6257689559823468E-65</c:v>
+                  <c:v>1.4852136862001758E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.0648779189638164E-70</c:v>
+                  <c:v>1.0926199633097166E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>7.7892403486357351E-76</c:v>
+                  <c:v>7.5961234938959551E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.0886471808131194E-82</c:v>
+                  <c:v>4.8659656292148606E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.5579816002341329E-91</c:v>
+                  <c:v>2.7390523158633438E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5.2429945828898957E-104</c:v>
+                  <c:v>1.2179748700878812E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.4445743601939591E-125</c:v>
+                  <c:v>3.0458649045212951E-4</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>3.7524718414124151E-33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sigma 17.91°</c:v>
+                  <c:v>sigma 30.00°</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5926,547 +5926,547 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="184"/>
                 <c:pt idx="0">
-                  <c:v>3.2856574492373478E-6</c:v>
+                  <c:v>1.1108996538242306E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.343083322435166E-6</c:v>
+                  <c:v>1.227052105297825E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7229522049724446E-6</c:v>
+                  <c:v>1.3538440136652357E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5177547897290968E-6</c:v>
+                  <c:v>1.4920786069067842E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8446951572396325E-6</c:v>
+                  <c:v>1.6426015518885544E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2851755921697797E-5</c:v>
+                  <c:v>1.8063013419781275E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6725100832451434E-5</c:v>
+                  <c:v>1.9841094744370288E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1698069709069969E-5</c:v>
+                  <c:v>2.1770003951548354E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8062059109365606E-5</c:v>
+                  <c:v>2.3859911879380247E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6179624043472693E-5</c:v>
+                  <c:v>2.6121409853918233E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6500181040329523E-5</c:v>
+                  <c:v>2.8565500784550377E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9578740429523322E-5</c:v>
+                  <c:v>3.1203587018849094E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.60981450615463E-5</c:v>
+                  <c:v>3.4047454734599344E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6895342807194591E-5</c:v>
+                  <c:v>3.7109254653904883E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2299226967785485E-4</c:v>
+                  <c:v>4.0401478874163239E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5563196754935903E-4</c:v>
+                  <c:v>4.393693362340742E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9632060310363321E-4</c:v>
+                  <c:v>4.7728707763164152E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.468760901393659E-4</c:v>
+                  <c:v>5.1790136880673451E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0948404280454068E-4</c:v>
+                  <c:v>5.6134762834133725E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.867617990672103E-4</c:v>
+                  <c:v>6.0776288639624185E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8183124791345203E-4</c:v>
+                  <c:v>6.5728528616530474E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9840116597345073E-4</c:v>
+                  <c:v>7.1005353739636984E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4085971480158247E-4</c:v>
+                  <c:v>7.6620632180493489E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1437766388058946E-4</c:v>
+                  <c:v>8.2588165058114921E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1250227814466923E-3</c:v>
+                  <c:v>8.8921617459386343E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.379885670322223E-3</c:v>
+                  <c:v>9.5634444832538607E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6872171141920865E-3</c:v>
+                  <c:v>0.10273981490249434</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0565767367218338E-3</c:v>
+                  <c:v>0.11025052530448522</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4989924578705035E-3</c:v>
+                  <c:v>0.11817891718178056</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0271298560238073E-3</c:v>
+                  <c:v>0.12653678504427179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6554701098643798E-3</c:v>
+                  <c:v>0.1353352832366127</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.4004947006446157E-3</c:v>
+                  <c:v>0.14458482941715711</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2808745062749157E-3</c:v>
+                  <c:v>0.15429500550156833</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3176603183892309E-3</c:v>
+                  <c:v>0.1644744565771549</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.534471170099994E-3</c:v>
+                  <c:v>0.17513078834515097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.9576761863939397E-3</c:v>
+                  <c:v>0.18627046369770089</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0616564975249643E-2</c:v>
+                  <c:v>0.19789869908361465</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2543500883227357E-2</c:v>
+                  <c:v>0.21001936136138818</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4774050765611954E-2</c:v>
+                  <c:v>0.22263486587889095</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.734708429265823E-2</c:v>
+                  <c:v>0.23574607655586352</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0304835257654582E-2</c:v>
+                  <c:v>0.24935220877729622</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3692916899578035E-2</c:v>
+                  <c:v>0.26345073593225671</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7560282935249758E-2</c:v>
+                  <c:v>0.27803730045319414</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1959125846458332E-2</c:v>
+                  <c:v>0.29310563022459868</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.6944704019972761E-2</c:v>
+                  <c:v>0.30864746123661896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2575089625102466E-2</c:v>
+                  <c:v>0.32465246735834974</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.891082966439983E-2</c:v>
+                  <c:v>0.34110819809659199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.6014513474192264E-2</c:v>
+                  <c:v>0.35800002518859969</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.3950241103259434E-2</c:v>
+                  <c:v>0.37531109885139957</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.2782988473336752E-2</c:v>
+                  <c:v>0.393022314475509</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.2577867028647695E-2</c:v>
+                  <c:v>0.41111229050718745</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.3399277707508707E-2</c:v>
+                  <c:v>0.42955735821073915</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.10530996149983259</c:v>
+                  <c:v>0.44833156394094303</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.11836995156012713</c:v>
+                  <c:v>0.4674066844856189</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.13263543478318265</c:v>
+                  <c:v>0.48675225595997168</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.14815753386242878</c:v>
+                  <c:v>0.50633561664810056</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.16498102406912385</c:v>
+                  <c:v>0.52612196409345646</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.18314300223195479</c:v>
+                  <c:v>0.5460744266397094</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.20267152856820067</c:v>
+                  <c:v>0.56615414951719756</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.22358426501737388</c:v>
+                  <c:v>0.58632039545869852</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2458871364479599</c:v>
+                  <c:v>0.60653065971263342</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.26957304343619598</c:v>
+                  <c:v>0.62674079920299297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.29462065714200303</c:v>
+                  <c:v>0.64690517546435233</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.32099332802504382</c:v>
+                  <c:v>0.66697681085847438</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.34863814065616983</c:v>
+                  <c:v>0.68690755745738785</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.3774851466022292</c:v>
+                  <c:v>0.70664827785771622</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.40744680622892498</c:v>
+                  <c:v>0.72614903707369094</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.43841766823229861</c:v>
+                  <c:v>0.74535930454298049</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.47027431275480525</c:v>
+                  <c:v>0.76422816517149039</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.50287558007522504</c:v>
+                  <c:v>0.78270453824186814</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.53606310212134511</c:v>
+                  <c:v>0.80073740291680806</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.56966214851014052</c:v>
+                  <c:v>0.81827602898354923</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.60348279257294668</c:v>
+                  <c:v>0.835270211411272</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.63732139600357707</c:v>
+                  <c:v>0.85167050722944093</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.67096240353362602</c:v>
+                  <c:v>0.86742847318341076</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.7041804315731105</c:v>
+                  <c:v>0.88249690258459546</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.73674262725672479</c:v>
+                  <c:v>0.8968300597468688</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.76841126701979257</c:v>
+                  <c:v>0.91038391038914235</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.79894655691312477</c:v>
+                  <c:v>0.92311634638663576</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.82810959057085953</c:v>
+                  <c:v>0.93498740327045315</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.85566541527947737</c:v>
+                  <c:v>0.94595946890676541</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.88138615215245386</c:v>
+                  <c:v>0.95599748183309996</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90505411316220041</c:v>
+                  <c:v>0.96506911778968041</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.92646485585688521</c:v>
+                  <c:v>0.97314496305805098</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.94543011609531047</c:v>
+                  <c:v>0.98019867330675525</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.96178056012743718</c:v>
+                  <c:v>0.98620711674391626</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.97536829984550077</c:v>
+                  <c:v>0.9911505004882849</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98606911899821237</c:v>
+                  <c:v>0.99501247919268232</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99378436351867461</c:v>
+                  <c:v>0.99778024508560637</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99844245574053236</c:v>
+                  <c:v>0.99944459873685809</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99844245574053236</c:v>
+                  <c:v>0.99944459873685809</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99378436351867461</c:v>
+                  <c:v>0.99778024508560637</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.98606911899821237</c:v>
+                  <c:v>0.99501247919268232</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.97536829984550077</c:v>
+                  <c:v>0.9911505004882849</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.96178056012743718</c:v>
+                  <c:v>0.98620711674391626</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.94543011609531047</c:v>
+                  <c:v>0.98019867330675525</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.92646485585688521</c:v>
+                  <c:v>0.97314496305805098</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.90505411316220041</c:v>
+                  <c:v>0.96506911778968041</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.88138615215245386</c:v>
+                  <c:v>0.95599748183309996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.85566541527947737</c:v>
+                  <c:v>0.94595946890676541</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.82810959057085953</c:v>
+                  <c:v>0.93498740327045315</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.79894655691312477</c:v>
+                  <c:v>0.92311634638663576</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.76841126701979257</c:v>
+                  <c:v>0.91038391038914235</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.73674262725672479</c:v>
+                  <c:v>0.8968300597468688</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.7041804315731105</c:v>
+                  <c:v>0.88249690258459546</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.67096240353362602</c:v>
+                  <c:v>0.86742847318341076</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.63732139600357707</c:v>
+                  <c:v>0.85167050722944093</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.60348279257294668</c:v>
+                  <c:v>0.835270211411272</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.56966214851014052</c:v>
+                  <c:v>0.81827602898354923</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.53606310212134511</c:v>
+                  <c:v>0.80073740291680806</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.50287558007522504</c:v>
+                  <c:v>0.78270453824186814</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.47027431275480525</c:v>
+                  <c:v>0.76422816517149039</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.43841766823229861</c:v>
+                  <c:v>0.74535930454298049</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.40744680622892498</c:v>
+                  <c:v>0.72614903707369094</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.3774851466022292</c:v>
+                  <c:v>0.70664827785771622</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.34863814065616983</c:v>
+                  <c:v>0.68690755745738785</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.32099332802504382</c:v>
+                  <c:v>0.66697681085847438</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.29462065714200303</c:v>
+                  <c:v>0.64690517546435233</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.26957304343619598</c:v>
+                  <c:v>0.62674079920299297</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.2458871364479599</c:v>
+                  <c:v>0.60653065971263342</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.22358426501737388</c:v>
+                  <c:v>0.58632039545869852</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.20267152856820067</c:v>
+                  <c:v>0.56615414951719756</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.18314300223195479</c:v>
+                  <c:v>0.5460744266397094</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.16498102406912385</c:v>
+                  <c:v>0.52612196409345646</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.14815753386242878</c:v>
+                  <c:v>0.50633561664810056</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.13263543478318265</c:v>
+                  <c:v>0.48675225595997168</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.11836995156012713</c:v>
+                  <c:v>0.4674066844856189</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.10530996149983259</c:v>
+                  <c:v>0.44833156394094303</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.3399277707508707E-2</c:v>
+                  <c:v>0.42955735821073915</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.2577867028647695E-2</c:v>
+                  <c:v>0.41111229050718745</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2782988473336752E-2</c:v>
+                  <c:v>0.393022314475509</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.3950241103259434E-2</c:v>
+                  <c:v>0.37531109885139957</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.6014513474192264E-2</c:v>
+                  <c:v>0.35800002518859969</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.891082966439983E-2</c:v>
+                  <c:v>0.34110819809659199</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.2575089625102466E-2</c:v>
+                  <c:v>0.32465246735834974</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.6944704019972761E-2</c:v>
+                  <c:v>0.30864746123661896</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.1959125846458332E-2</c:v>
+                  <c:v>0.29310563022459868</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.7560282935249758E-2</c:v>
+                  <c:v>0.27803730045319414</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.3692916899578035E-2</c:v>
+                  <c:v>0.26345073593225671</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.0304835257654582E-2</c:v>
+                  <c:v>0.24935220877729622</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.734708429265823E-2</c:v>
+                  <c:v>0.23574607655586352</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.4774050765611954E-2</c:v>
+                  <c:v>0.22263486587889095</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.2543500883227357E-2</c:v>
+                  <c:v>0.21001936136138818</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.0616564975249643E-2</c:v>
+                  <c:v>0.19789869908361465</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>8.9576761863939397E-3</c:v>
+                  <c:v>0.18627046369770089</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>7.534471170099994E-3</c:v>
+                  <c:v>0.17513078834515097</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.3176603183892309E-3</c:v>
+                  <c:v>0.1644744565771549</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.2808745062749157E-3</c:v>
+                  <c:v>0.15429500550156833</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.4004947006446157E-3</c:v>
+                  <c:v>0.14458482941715711</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.6554701098643798E-3</c:v>
+                  <c:v>0.1353352832366127</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.0271298560238073E-3</c:v>
+                  <c:v>0.12653678504427179</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.4989924578705035E-3</c:v>
+                  <c:v>0.11817891718178056</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.0565767367218338E-3</c:v>
+                  <c:v>0.11025052530448522</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.6872171141920865E-3</c:v>
+                  <c:v>0.10273981490249434</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.379885670322223E-3</c:v>
+                  <c:v>9.5634444832538607E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.1250227814466923E-3</c:v>
+                  <c:v>8.8921617459386343E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9.1437766388058946E-4</c:v>
+                  <c:v>8.2588165058114921E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7.4085971480158247E-4</c:v>
+                  <c:v>7.6620632180493489E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5.9840116597345073E-4</c:v>
+                  <c:v>7.1005353739636984E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4.8183124791345203E-4</c:v>
+                  <c:v>6.5728528616530474E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.867617990672103E-4</c:v>
+                  <c:v>6.0776288639624185E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.0948404280454068E-4</c:v>
+                  <c:v>5.6134762834133725E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.468760901393659E-4</c:v>
+                  <c:v>5.1790136880673451E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.9632060310363321E-4</c:v>
+                  <c:v>4.7728707763164152E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.5563196754935903E-4</c:v>
+                  <c:v>4.393693362340742E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.2299226967785485E-4</c:v>
+                  <c:v>4.0401478874163239E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>9.6895342807194591E-5</c:v>
+                  <c:v>3.7109254653904883E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>7.60981450615463E-5</c:v>
+                  <c:v>3.4047454734599344E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5.9578740429523322E-5</c:v>
+                  <c:v>3.1203587018849094E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.6500181040329523E-5</c:v>
+                  <c:v>2.8565500784550377E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.6179624043472693E-5</c:v>
+                  <c:v>2.6121409853918233E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.8062059109365606E-5</c:v>
+                  <c:v>2.3859911879380247E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.1698069709069969E-5</c:v>
+                  <c:v>2.1770003951548354E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.6725100832451434E-5</c:v>
+                  <c:v>1.9841094744370288E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.2851755921697797E-5</c:v>
+                  <c:v>1.8063013419781275E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>9.8446951572396325E-6</c:v>
+                  <c:v>1.6426015518885544E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7.5177547897290968E-6</c:v>
+                  <c:v>1.4920786069067842E-2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5.7229522049724446E-6</c:v>
+                  <c:v>1.3538440136652357E-2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.343083322435166E-6</c:v>
+                  <c:v>1.227052105297825E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.2856574492373478E-6</c:v>
+                  <c:v>1.1108996538242306E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9683,8 +9683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F76C05D-CEFD-4AAE-B808-ECAECDB41AE1}">
   <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="K3" s="15" t="str">
         <f>"FWHM "&amp;TEXT(D16,"0.0")&amp;"°"</f>
-        <v>FWHM 16.0°</v>
+        <v>FWHM 90.0°</v>
       </c>
       <c r="L3" s="16" t="str">
         <f>"I0/Phi "&amp;TEXT(E18,"0.00")&amp;" cd/lm"</f>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>"sigma "&amp;TEXT(F19,"0.00")&amp;"°"</f>
-        <v>sigma 17.91°</v>
+        <v>sigma 30.00°</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="K4" s="19">
         <f t="shared" ref="K4:K35" si="1">$O4^D$15</f>
-        <v>0</v>
+        <v>3.7524718414124151E-33</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" ref="L4:L35" si="2">$O4^E$15</f>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="M4" s="31">
         <f>EXP(-0.5*(I4^2)/(F$19^2))</f>
-        <v>3.2856574492373478E-6</v>
+        <v>1.1108996538242306E-2</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O35" si="3">COS(I4*PI()/180)</f>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="K5" s="19">
         <f t="shared" si="1"/>
-        <v>2.4445743601939591E-125</v>
+        <v>3.0458649045212951E-4</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" si="2"/>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="M5" s="31">
         <f t="shared" ref="M5:M71" si="6">EXP(-0.5*(I5^2)/(F$19^2))</f>
-        <v>4.343083322435166E-6</v>
+        <v>1.227052105297825E-2</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="3"/>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="K6" s="19">
         <f t="shared" si="1"/>
-        <v>5.2429945828898957E-104</v>
+        <v>1.2179748700878812E-3</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="2"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="M6" s="31">
         <f t="shared" si="6"/>
-        <v>5.7229522049724446E-6</v>
+        <v>1.3538440136652357E-2</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="3"/>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="K7" s="19">
         <f t="shared" si="1"/>
-        <v>1.5579816002341329E-91</v>
+        <v>2.7390523158633438E-3</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" si="2"/>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="M7" s="31">
         <f t="shared" si="6"/>
-        <v>7.5177547897290968E-6</v>
+        <v>1.4920786069067842E-2</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="3"/>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="K8" s="19">
         <f t="shared" si="1"/>
-        <v>1.0886471808131194E-82</v>
+        <v>4.8659656292148606E-3</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" si="2"/>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="M8" s="31">
         <f t="shared" si="6"/>
-        <v>9.8446951572396325E-6</v>
+        <v>1.6426015518885544E-2</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="3"/>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K9" s="19">
         <f t="shared" si="1"/>
-        <v>7.7892403486357351E-76</v>
+        <v>7.5961234938959551E-3</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="M9" s="31">
         <f t="shared" si="6"/>
-        <v>1.2851755921697797E-5</v>
+        <v>1.8063013419781275E-2</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="3"/>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="K10" s="19">
         <f t="shared" si="1"/>
-        <v>3.0648779189638164E-70</v>
+        <v>1.0926199633097166E-2</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="2"/>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="M10" s="31">
         <f t="shared" si="6"/>
-        <v>1.6725100832451434E-5</v>
+        <v>1.9841094744370288E-2</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="3"/>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="K11" s="19">
         <f t="shared" si="1"/>
-        <v>1.6257689559823468E-65</v>
+        <v>1.4852136862001758E-2</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" si="2"/>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="M11" s="31">
         <f t="shared" si="6"/>
-        <v>2.1698069709069969E-5</v>
+        <v>2.1770003951548354E-2</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="3"/>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>1.9855385563197709E-61</v>
+        <v>1.9369152030840622E-2</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" si="2"/>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="M12" s="31">
         <f t="shared" si="6"/>
-        <v>2.8062059109365606E-5</v>
+        <v>2.3859911879380247E-2</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="3"/>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="K13" s="19">
         <f t="shared" si="1"/>
-        <v>7.8850240872812441E-58</v>
+        <v>2.447174185242321E-2</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" si="2"/>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="M13" s="31">
         <f t="shared" si="6"/>
-        <v>3.6179624043472693E-5</v>
+        <v>2.6121409853918233E-2</v>
       </c>
       <c r="O13" s="18">
         <f t="shared" si="3"/>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="K14" s="19">
         <f t="shared" si="1"/>
-        <v>1.2888539247859851E-54</v>
+        <v>3.0153689607045807E-2</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" si="2"/>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="M14" s="31">
         <f t="shared" si="6"/>
-        <v>4.6500181040329523E-5</v>
+        <v>2.8565500784550377E-2</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="3"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D15" s="5">
         <f>LOG(0.5)/LOG(COS(D16/2*PI()/180))</f>
-        <v>70.876872679127558</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="E15" s="5">
         <f>+(2*PI()*E18-1)</f>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="F15" s="5">
         <f>LOG(0.5)/LOG(COS(F16/2*PI()/180))</f>
-        <v>9.9999386713415426</v>
+        <v>3.4069989018910838</v>
       </c>
       <c r="I15">
         <v>-79</v>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="K15" s="19">
         <f t="shared" si="1"/>
-        <v>1.0258785005006591E-51</v>
+        <v>3.6408072716606302E-2</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="2"/>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="M15" s="31">
         <f t="shared" si="6"/>
-        <v>5.9578740429523322E-5</v>
+        <v>3.1203587018849094E-2</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="3"/>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5">
         <f>2*ACOS(0.5^(1/(E15+0.0000000001)))*180/PI()</f>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="F16" s="5">
         <f>2*F19*SQRT(LN(4))</f>
-        <v>42.174827006504302</v>
+        <v>70.644601350928482</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="K16" s="19">
         <f t="shared" si="1"/>
-        <v>4.5018432797075267E-49</v>
+        <v>4.322727117869956E-2</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" si="2"/>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="M16" s="31">
         <f t="shared" si="6"/>
-        <v>7.60981450615463E-5</v>
+        <v>3.4047454734599344E-2</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="3"/>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="D17" s="5">
         <f>2*ACOS(0.1^(1/(D15+0.0000000001)))*180/PI()</f>
-        <v>29.051542532277065</v>
+        <v>143.13010235195716</v>
       </c>
       <c r="E17" s="5">
         <f>2*ACOS(0.1^(1/(E15+0.0000000001)))*180/PI()</f>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="F17" s="5">
         <f>2*F19*SQRT(2*LN(1/0.1))</f>
-        <v>76.868503061684422</v>
+        <v>128.75796157736085</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="K17" s="19">
         <f t="shared" si="1"/>
-        <v>1.1968122081335141E-46</v>
+        <v>5.0602976850416446E-2</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="2"/>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="M17" s="31">
         <f t="shared" si="6"/>
-        <v>9.6895342807194591E-5</v>
+        <v>3.7109254653904883E-2</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="3"/>
@@ -10345,14 +10345,14 @@
       </c>
       <c r="D18" s="5">
         <f>+(D15+1)/(2*PI())</f>
-        <v>11.439559580869954</v>
+        <v>0.47746482927568612</v>
       </c>
       <c r="E18" s="4">
         <v>20</v>
       </c>
       <c r="F18" s="27" t="str">
         <f>"≈ "&amp;TEXT((F15+1)/(2*PI()),"0.00")</f>
-        <v>≈ 1.75</v>
+        <v>≈ 0.70</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="K18" s="19">
         <f t="shared" si="1"/>
-        <v>2.074072704508442E-44</v>
+        <v>5.8526203570536582E-2</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" si="2"/>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="M18" s="31">
         <f t="shared" si="6"/>
-        <v>1.2299226967785485E-4</v>
+        <v>4.0401478874163239E-2</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="3"/>
@@ -10400,16 +10400,16 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="27" t="str">
         <f>IF(D16&lt;=60,0.5*D16/SQRT(LN(4)),"FWHM&gt;60")</f>
-        <v>6.7945744023041525</v>
+        <v>FWHM&gt;60</v>
       </c>
       <c r="E19" s="27">
         <f>IF(E16&lt;=60,0.5*E16/SQRT(LN(4)),"FWHM&gt;60")</f>
         <v>5.1268437885179106</v>
       </c>
       <c r="F19" s="4">
-        <v>17.91</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="K19" s="19">
         <f t="shared" si="1"/>
-        <v>2.4831821166632991E-42</v>
+        <v>6.6987298107780646E-2</v>
       </c>
       <c r="L19" s="20">
         <f t="shared" si="2"/>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="M19" s="31">
         <f t="shared" si="6"/>
-        <v>1.5563196754935903E-4</v>
+        <v>4.393693362340742E-2</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="3"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D20" s="27">
         <f>1/(PI()*(SIN(RADIANS(D16/2)))^2)</f>
-        <v>16.433857593608703</v>
+        <v>0.63661977236758149</v>
       </c>
       <c r="E20" s="27">
         <f>1/(PI()*(SIN(RADIANS(E16/2)))^2)</f>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="F20" s="27">
         <f>1/(PI()*(SIN(RADIANS(F16/2)))^2)</f>
-        <v>2.4589374378475943</v>
+        <v>0.9522065221591488</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="K20" s="19">
         <f t="shared" si="1"/>
-        <v>2.1523505442775582E-40</v>
+        <v>7.597595192178698E-2</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" si="2"/>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="M20" s="31">
         <f t="shared" si="6"/>
-        <v>1.9632060310363321E-4</v>
+        <v>4.7728707763164152E-2</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="3"/>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="K21" s="19">
         <f t="shared" si="1"/>
-        <v>1.4033535227315424E-38</v>
+        <v>8.548121372247916E-2</v>
       </c>
       <c r="L21" s="20">
         <f t="shared" si="2"/>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="M21" s="31">
         <f t="shared" si="6"/>
-        <v>2.468760901393659E-4</v>
+        <v>5.1790136880673451E-2</v>
       </c>
       <c r="O21" s="18">
         <f t="shared" si="3"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" si="1"/>
-        <v>7.1046870909461545E-37</v>
+        <v>9.5491502812526247E-2</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="2"/>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="M22" s="31">
         <f t="shared" si="6"/>
-        <v>3.0948404280454068E-4</v>
+        <v>5.6134762834133725E-2</v>
       </c>
       <c r="O22" s="18">
         <f t="shared" si="3"/>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="1"/>
-        <v>2.8680270855202653E-35</v>
+        <v>0.10599462319663902</v>
       </c>
       <c r="L23" s="20">
         <f t="shared" si="2"/>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="M23" s="31">
         <f t="shared" si="6"/>
-        <v>3.867617990672103E-4</v>
+        <v>6.0776288639624185E-2</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="3"/>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="1"/>
-        <v>9.4414908712928083E-34</v>
+        <v>0.11697777844051101</v>
       </c>
       <c r="L24" s="20">
         <f t="shared" si="2"/>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="M24" s="31">
         <f t="shared" si="6"/>
-        <v>4.8183124791345203E-4</v>
+        <v>6.5728528616530474E-2</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="3"/>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="1"/>
-        <v>2.5837158273306758E-32</v>
+        <v>0.12842758726130291</v>
       </c>
       <c r="L25" s="20">
         <f t="shared" si="2"/>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="M25" s="31">
         <f t="shared" si="6"/>
-        <v>5.9840116597345073E-4</v>
+        <v>7.1005353739636984E-2</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="3"/>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="1"/>
-        <v>5.9752919472960749E-31</v>
+        <v>0.14033009983067429</v>
       </c>
       <c r="L26" s="20">
         <f t="shared" si="2"/>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="M26" s="31">
         <f t="shared" si="6"/>
-        <v>7.4085971480158247E-4</v>
+        <v>7.6620632180493489E-2</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="3"/>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="1"/>
-        <v>1.1846492814285038E-29</v>
+        <v>0.15267081477050143</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" si="2"/>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="6"/>
-        <v>9.1437766388058946E-4</v>
+        <v>8.2588165058114921E-2</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="3"/>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="K28" s="19">
         <f t="shared" si="1"/>
-        <v>2.0386773714315746E-28</v>
+        <v>0.16543469682057083</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" si="2"/>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="M28" s="31">
         <f t="shared" si="6"/>
-        <v>1.1250227814466923E-3</v>
+        <v>8.8921617459386343E-2</v>
       </c>
       <c r="O28" s="18">
         <f t="shared" si="3"/>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="K29" s="19">
         <f t="shared" si="1"/>
-        <v>3.0788065817813101E-27</v>
+        <v>0.17860619515673026</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" si="2"/>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="M29" s="31">
         <f t="shared" si="6"/>
-        <v>1.379885670322223E-3</v>
+        <v>9.5634444832538607E-2</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="3"/>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="K30" s="19">
         <f t="shared" si="1"/>
-        <v>4.1198206324568006E-26</v>
+        <v>0.19216926233717083</v>
       </c>
       <c r="L30" s="20">
         <f t="shared" si="2"/>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="M30" s="31">
         <f t="shared" si="6"/>
-        <v>1.6872171141920865E-3</v>
+        <v>0.10273981490249434</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="3"/>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="K31" s="19">
         <f t="shared" si="1"/>
-        <v>4.9265990366534905E-25</v>
+        <v>0.20610737385376335</v>
       </c>
       <c r="L31" s="20">
         <f t="shared" si="2"/>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="M31" s="31">
         <f t="shared" si="6"/>
-        <v>2.0565767367218338E-3</v>
+        <v>0.11025052530448522</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="3"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="K32" s="19">
         <f t="shared" si="1"/>
-        <v>5.3050994094741039E-24</v>
+        <v>0.22040354826462655</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" si="2"/>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="M32" s="31">
         <f t="shared" si="6"/>
-        <v>2.4989924578705035E-3</v>
+        <v>0.11817891718178056</v>
       </c>
       <c r="O32" s="18">
         <f t="shared" si="3"/>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="K33" s="19">
         <f t="shared" si="1"/>
-        <v>5.1793115795918545E-23</v>
+        <v>0.23504036788339755</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" si="2"/>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="M33" s="31">
         <f t="shared" si="6"/>
-        <v>3.0271298560238073E-3</v>
+        <v>0.12653678504427179</v>
       </c>
       <c r="O33" s="18">
         <f t="shared" si="3"/>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="K34" s="19">
         <f t="shared" si="1"/>
-        <v>4.6124888011352357E-22</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="L34" s="20">
         <f t="shared" si="2"/>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="M34" s="31">
         <f t="shared" si="6"/>
-        <v>3.6554701098643798E-3</v>
+        <v>0.1353352832366127</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="3"/>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="K35" s="19">
         <f t="shared" si="1"/>
-        <v>3.7676739327806769E-21</v>
+        <v>0.26526421860705468</v>
       </c>
       <c r="L35" s="20">
         <f t="shared" si="2"/>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="M35" s="31">
         <f t="shared" si="6"/>
-        <v>4.4004947006446157E-3</v>
+        <v>0.14458482941715711</v>
       </c>
       <c r="O35" s="18">
         <f t="shared" si="3"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="K36" s="19">
         <f t="shared" ref="K36:K70" si="8">$O36^D$15</f>
-        <v>2.8369166203881151E-20</v>
+        <v>0.28081442660546113</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" ref="L36:L70" si="9">$O36^E$15</f>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="M36" s="31">
         <f t="shared" si="6"/>
-        <v>5.2808745062749157E-3</v>
+        <v>0.15429500550156833</v>
       </c>
       <c r="O36" s="18">
         <f t="shared" ref="O36:O70" si="10">COS(I36*PI()/180)</f>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="K37" s="19">
         <f t="shared" si="8"/>
-        <v>1.9779463464769173E-19</v>
+        <v>0.29663167846209992</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" si="9"/>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="M37" s="31">
         <f t="shared" si="6"/>
-        <v>6.3176603183892309E-3</v>
+        <v>0.1644744565771549</v>
       </c>
       <c r="O37" s="18">
         <f t="shared" si="10"/>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="K38" s="19">
         <f t="shared" si="8"/>
-        <v>1.2822104113234797E-18</v>
+        <v>0.31269670329204391</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" si="9"/>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="M38" s="31">
         <f t="shared" si="6"/>
-        <v>7.534471170099994E-3</v>
+        <v>0.17513078834515097</v>
       </c>
       <c r="O38" s="18">
         <f t="shared" si="10"/>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="K39" s="19">
         <f t="shared" si="8"/>
-        <v>7.7572252501993409E-18</v>
+        <v>0.32898992833716567</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" si="9"/>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="M39" s="31">
         <f t="shared" si="6"/>
-        <v>8.9576761863939397E-3</v>
+        <v>0.18627046369770089</v>
       </c>
       <c r="O39" s="18">
         <f t="shared" si="10"/>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="K43" s="19">
         <f t="shared" si="8"/>
-        <v>4.3948306122125396E-17</v>
+        <v>0.34549150281252622</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" si="9"/>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="M43" s="31">
         <f t="shared" si="6"/>
-        <v>1.0616564975249643E-2</v>
+        <v>0.19789869908361465</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" si="10"/>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="K44" s="19">
         <f t="shared" si="8"/>
-        <v>2.3389928393251342E-16</v>
+        <v>0.36218132209150039</v>
       </c>
       <c r="L44" s="20">
         <f t="shared" si="9"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="M44" s="31">
         <f t="shared" si="6"/>
-        <v>1.2543500883227357E-2</v>
+        <v>0.21001936136138818</v>
       </c>
       <c r="O44" s="18">
         <f t="shared" si="10"/>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="K45" s="19">
         <f t="shared" si="8"/>
-        <v>1.172784576672525E-15</v>
+        <v>0.37903905220016604</v>
       </c>
       <c r="L45" s="20">
         <f t="shared" si="9"/>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="M45" s="31">
         <f t="shared" si="6"/>
-        <v>1.4774050765611954E-2</v>
+        <v>0.22263486587889095</v>
       </c>
       <c r="O45" s="18">
         <f t="shared" si="10"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="K46" s="19">
         <f t="shared" si="8"/>
-        <v>5.5547235495362182E-15</v>
+        <v>0.3960441545911203</v>
       </c>
       <c r="L46" s="20">
         <f t="shared" si="9"/>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="M46" s="31">
         <f t="shared" si="6"/>
-        <v>1.734708429265823E-2</v>
+        <v>0.23574607655586352</v>
       </c>
       <c r="O46" s="18">
         <f t="shared" si="10"/>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K47" s="19">
         <f t="shared" si="8"/>
-        <v>2.4912906858788226E-14</v>
+        <v>0.41317591116653474</v>
       </c>
       <c r="L47" s="20">
         <f t="shared" si="9"/>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="M47" s="31">
         <f t="shared" si="6"/>
-        <v>2.0304835257654582E-2</v>
+        <v>0.24935220877729622</v>
       </c>
       <c r="O47" s="18">
         <f t="shared" si="10"/>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="K48" s="19">
         <f t="shared" si="8"/>
-        <v>1.0604407868919944E-13</v>
+        <v>0.43041344951996718</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" si="9"/>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="M48" s="31">
         <f t="shared" si="6"/>
-        <v>2.3692916899578035E-2</v>
+        <v>0.26345073593225671</v>
       </c>
       <c r="O48" s="18">
         <f t="shared" si="10"/>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="K49" s="19">
         <f t="shared" si="8"/>
-        <v>4.2929707888527282E-13</v>
+        <v>0.44773576836617318</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" si="9"/>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="M49" s="31">
         <f t="shared" si="6"/>
-        <v>2.7560282935249758E-2</v>
+        <v>0.27803730045319414</v>
       </c>
       <c r="O49" s="18">
         <f t="shared" si="10"/>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="K50" s="19">
         <f t="shared" si="8"/>
-        <v>1.6560836445449307E-12</v>
+        <v>0.46512176312793718</v>
       </c>
       <c r="L50" s="20">
         <f t="shared" si="9"/>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="M50" s="31">
         <f t="shared" si="6"/>
-        <v>3.1959125846458332E-2</v>
+        <v>0.29310563022459868</v>
       </c>
       <c r="O50" s="18">
         <f t="shared" si="10"/>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="K51" s="19">
         <f t="shared" si="8"/>
-        <v>6.0987759338418334E-12</v>
+        <v>0.48255025164874954</v>
       </c>
       <c r="L51" s="20">
         <f t="shared" si="9"/>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="M51" s="31">
         <f t="shared" si="6"/>
-        <v>3.6944704019972761E-2</v>
+        <v>0.30864746123661896</v>
       </c>
       <c r="O51" s="18">
         <f t="shared" si="10"/>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="K52" s="19">
         <f t="shared" si="8"/>
-        <v>2.1476705522810528E-11</v>
+        <v>0.5</v>
       </c>
       <c r="L52" s="20">
         <f t="shared" si="9"/>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="M52" s="31">
         <f t="shared" si="6"/>
-        <v>4.2575089625102466E-2</v>
+        <v>0.32465246735834974</v>
       </c>
       <c r="O52" s="18">
         <f t="shared" si="10"/>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="K53" s="19">
         <f t="shared" si="8"/>
-        <v>7.2432873549647532E-11</v>
+        <v>0.51744974835125057</v>
       </c>
       <c r="L53" s="20">
         <f t="shared" si="9"/>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="M53" s="31">
         <f t="shared" si="6"/>
-        <v>4.891082966439983E-2</v>
+        <v>0.34110819809659199</v>
       </c>
       <c r="O53" s="18">
         <f t="shared" si="10"/>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="K54" s="19">
         <f t="shared" si="8"/>
-        <v>2.3430391966216697E-10</v>
+        <v>0.53487823687206271</v>
       </c>
       <c r="L54" s="20">
         <f t="shared" si="9"/>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="M54" s="31">
         <f t="shared" si="6"/>
-        <v>5.6014513474192264E-2</v>
+        <v>0.35800002518859969</v>
       </c>
       <c r="O54" s="18">
         <f t="shared" si="10"/>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="K55" s="19">
         <f t="shared" si="8"/>
-        <v>7.2793048550301895E-10</v>
+        <v>0.55226423163382665</v>
       </c>
       <c r="L55" s="20">
         <f t="shared" si="9"/>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="M55" s="31">
         <f t="shared" si="6"/>
-        <v>6.3950241103259434E-2</v>
+        <v>0.37531109885139957</v>
       </c>
       <c r="O55" s="18">
         <f t="shared" si="10"/>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="K56" s="19">
         <f t="shared" si="8"/>
-        <v>2.1747979039233984E-9</v>
+        <v>0.56958655048003282</v>
       </c>
       <c r="L56" s="20">
         <f t="shared" si="9"/>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="M56" s="31">
         <f t="shared" si="6"/>
-        <v>7.2782988473336752E-2</v>
+        <v>0.393022314475509</v>
       </c>
       <c r="O56" s="18">
         <f t="shared" si="10"/>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="K57" s="19">
         <f t="shared" si="8"/>
-        <v>6.2558038685430222E-9</v>
+        <v>0.58682408883346504</v>
       </c>
       <c r="L57" s="20">
         <f t="shared" si="9"/>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="M57" s="31">
         <f t="shared" si="6"/>
-        <v>8.2577867028647695E-2</v>
+        <v>0.41111229050718745</v>
       </c>
       <c r="O57" s="18">
         <f t="shared" si="10"/>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="K58" s="19">
         <f t="shared" si="8"/>
-        <v>1.7344681535928216E-8</v>
+        <v>0.60395584540887959</v>
       </c>
       <c r="L58" s="20">
         <f t="shared" si="9"/>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="M58" s="31">
         <f t="shared" si="6"/>
-        <v>9.3399277707508707E-2</v>
+        <v>0.42955735821073915</v>
       </c>
       <c r="O58" s="18">
         <f t="shared" si="10"/>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="K59" s="19">
         <f t="shared" si="8"/>
-        <v>4.6400424502856311E-8</v>
+        <v>0.62096094779983391</v>
       </c>
       <c r="L59" s="20">
         <f t="shared" si="9"/>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="M59" s="31">
         <f t="shared" si="6"/>
-        <v>0.10530996149983259</v>
+        <v>0.44833156394094303</v>
       </c>
       <c r="O59" s="18">
         <f t="shared" si="10"/>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="K60" s="19">
         <f t="shared" si="8"/>
-        <v>1.1988789210395961E-7</v>
+        <v>0.63781867790849944</v>
       </c>
       <c r="L60" s="20">
         <f t="shared" si="9"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="M60" s="31">
         <f t="shared" si="6"/>
-        <v>0.11836995156012713</v>
+        <v>0.4674066844856189</v>
       </c>
       <c r="O60" s="18">
         <f t="shared" si="10"/>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="K61" s="19">
         <f t="shared" si="8"/>
-        <v>2.9945094932764976E-7</v>
+        <v>0.65450849718747373</v>
       </c>
       <c r="L61" s="20">
         <f t="shared" si="9"/>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="M61" s="31">
         <f t="shared" si="6"/>
-        <v>0.13263543478318265</v>
+        <v>0.48675225595997168</v>
       </c>
       <c r="O61" s="18">
         <f t="shared" si="10"/>
@@ -11840,7 +11840,7 @@
       </c>
       <c r="K62" s="19">
         <f t="shared" si="8"/>
-        <v>7.2368250513669133E-7</v>
+        <v>0.67101007166283433</v>
       </c>
       <c r="L62" s="20">
         <f t="shared" si="9"/>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="M62" s="31">
         <f t="shared" si="6"/>
-        <v>0.14815753386242878</v>
+        <v>0.50633561664810056</v>
       </c>
       <c r="O62" s="18">
         <f t="shared" si="10"/>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="K63" s="19">
         <f t="shared" si="8"/>
-        <v>1.6935378171519319E-6</v>
+        <v>0.68730329670795587</v>
       </c>
       <c r="L63" s="20">
         <f t="shared" si="9"/>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="M63" s="31">
         <f t="shared" si="6"/>
-        <v>0.16498102406912385</v>
+        <v>0.52612196409345646</v>
       </c>
       <c r="O63" s="18">
         <f t="shared" si="10"/>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="K64" s="19">
         <f t="shared" si="8"/>
-        <v>3.8405864742792049E-6</v>
+        <v>0.70336832153790008</v>
       </c>
       <c r="L64" s="20">
         <f t="shared" si="9"/>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="M64" s="31">
         <f t="shared" si="6"/>
-        <v>0.18314300223195479</v>
+        <v>0.5460744266397094</v>
       </c>
       <c r="O64" s="18">
         <f t="shared" si="10"/>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="K65" s="19">
         <f t="shared" si="8"/>
-        <v>8.4463237360723854E-6</v>
+        <v>0.71918557339453859</v>
       </c>
       <c r="L65" s="20">
         <f t="shared" si="9"/>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="M65" s="31">
         <f t="shared" si="6"/>
-        <v>0.20267152856820067</v>
+        <v>0.56615414951719756</v>
       </c>
       <c r="O65" s="18">
         <f t="shared" si="10"/>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="K66" s="19">
         <f t="shared" si="8"/>
-        <v>1.8025972811456483E-5</v>
+        <v>0.73473578139294538</v>
       </c>
       <c r="L66" s="20">
         <f t="shared" si="9"/>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="M66" s="31">
         <f t="shared" si="6"/>
-        <v>0.22358426501737388</v>
+        <v>0.58632039545869852</v>
       </c>
       <c r="O66" s="18">
         <f t="shared" si="10"/>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="K67" s="19">
         <f t="shared" si="8"/>
-        <v>3.7356530686863316E-5</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="L67" s="20">
         <f t="shared" si="9"/>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="M67" s="31">
         <f t="shared" si="6"/>
-        <v>0.2458871364479599</v>
+        <v>0.60653065971263342</v>
       </c>
       <c r="O67" s="18">
         <f t="shared" si="10"/>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="K68" s="19">
         <f t="shared" si="8"/>
-        <v>7.5219598289675234E-5</v>
+        <v>0.76495963211660234</v>
       </c>
       <c r="L68" s="20">
         <f t="shared" si="9"/>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="M68" s="31">
         <f t="shared" si="6"/>
-        <v>0.26957304343619598</v>
+        <v>0.62674079920299297</v>
       </c>
       <c r="O68" s="18">
         <f t="shared" si="10"/>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="K69" s="19">
         <f t="shared" si="8"/>
-        <v>1.4724369164435084E-4</v>
+        <v>0.7795964517353734</v>
       </c>
       <c r="L69" s="20">
         <f t="shared" si="9"/>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="M69" s="31">
         <f t="shared" si="6"/>
-        <v>0.29462065714200303</v>
+        <v>0.64690517546435233</v>
       </c>
       <c r="O69" s="18">
         <f t="shared" si="10"/>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="K70" s="19">
         <f t="shared" si="8"/>
-        <v>2.8035854754709195E-4</v>
+        <v>0.79389262614623657</v>
       </c>
       <c r="L70" s="20">
         <f t="shared" si="9"/>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="M70" s="31">
         <f t="shared" si="6"/>
-        <v>0.32099332802504382</v>
+        <v>0.66697681085847438</v>
       </c>
       <c r="O70" s="18">
         <f t="shared" si="10"/>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="K71" s="19">
         <f t="shared" ref="K71:K102" si="14">$O71^D$15</f>
-        <v>5.1949212716019468E-4</v>
+        <v>0.8078307376628292</v>
       </c>
       <c r="L71" s="20">
         <f t="shared" ref="L71:L102" si="15">$O71^E$15</f>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="M71" s="31">
         <f t="shared" si="6"/>
-        <v>0.34863814065616983</v>
+        <v>0.68690755745738785</v>
       </c>
       <c r="O71" s="18">
         <f t="shared" ref="O71:O102" si="16">COS(I71*PI()/180)</f>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="K72" s="19">
         <f t="shared" si="14"/>
-        <v>9.3720812007158075E-4</v>
+        <v>0.82139380484326951</v>
       </c>
       <c r="L72" s="20">
         <f t="shared" si="15"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="M72" s="31">
         <f t="shared" ref="M72:M135" si="19">EXP(-0.5*(I72^2)/(F$19^2))</f>
-        <v>0.3774851466022292</v>
+        <v>0.70664827785771622</v>
       </c>
       <c r="O72" s="18">
         <f t="shared" si="16"/>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="K73" s="19">
         <f t="shared" si="14"/>
-        <v>1.6469360279551359E-3</v>
+        <v>0.83456530317942901</v>
       </c>
       <c r="L73" s="20">
         <f t="shared" si="15"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="M73" s="31">
         <f t="shared" si="19"/>
-        <v>0.40744680622892498</v>
+        <v>0.72614903707369094</v>
       </c>
       <c r="O73" s="18">
         <f t="shared" si="16"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="K74" s="19">
         <f t="shared" si="14"/>
-        <v>2.8202086754227488E-3</v>
+        <v>0.84732918522949874</v>
       </c>
       <c r="L74" s="20">
         <f t="shared" si="15"/>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="M74" s="31">
         <f t="shared" si="19"/>
-        <v>0.43841766823229861</v>
+        <v>0.74535930454298049</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" si="16"/>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="K75" s="19">
         <f t="shared" si="14"/>
-        <v>4.7078094164431355E-3</v>
+        <v>0.85966990016932554</v>
       </c>
       <c r="L75" s="20">
         <f t="shared" si="15"/>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="M75" s="31">
         <f t="shared" si="19"/>
-        <v>0.47027431275480525</v>
+        <v>0.76422816517149039</v>
       </c>
       <c r="O75" s="18">
         <f t="shared" si="16"/>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="K76" s="19">
         <f t="shared" si="14"/>
-        <v>7.6638767614166286E-3</v>
+        <v>0.87157241273869712</v>
       </c>
       <c r="L76" s="20">
         <f t="shared" si="15"/>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="M76" s="31">
         <f t="shared" si="19"/>
-        <v>0.50287558007522504</v>
+        <v>0.78270453824186814</v>
       </c>
       <c r="O76" s="18">
         <f t="shared" si="16"/>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="K77" s="19">
         <f t="shared" si="14"/>
-        <v>1.2170800719542664E-2</v>
+        <v>0.88302222155948906</v>
       </c>
       <c r="L77" s="20">
         <f t="shared" si="15"/>
@@ -12346,7 +12346,7 @@
       </c>
       <c r="M77" s="31">
         <f t="shared" si="19"/>
-        <v>0.53606310212134511</v>
+        <v>0.80073740291680806</v>
       </c>
       <c r="O77" s="18">
         <f t="shared" si="16"/>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="K78" s="19">
         <f t="shared" si="14"/>
-        <v>1.8861243512506495E-2</v>
+        <v>0.89400537680336101</v>
       </c>
       <c r="L78" s="20">
         <f t="shared" si="15"/>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="M78" s="31">
         <f t="shared" si="19"/>
-        <v>0.56966214851014052</v>
+        <v>0.81827602898354923</v>
       </c>
       <c r="O78" s="18">
         <f t="shared" si="16"/>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="K79" s="19">
         <f t="shared" si="14"/>
-        <v>2.853201938696024E-2</v>
+        <v>0.90450849718747361</v>
       </c>
       <c r="L79" s="20">
         <f t="shared" si="15"/>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="M79" s="31">
         <f t="shared" si="19"/>
-        <v>0.60348279257294668</v>
+        <v>0.835270211411272</v>
       </c>
       <c r="O79" s="18">
         <f t="shared" si="16"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="K80" s="19">
         <f t="shared" si="14"/>
-        <v>4.2143202458471939E-2</v>
+        <v>0.9145187862775207</v>
       </c>
       <c r="L80" s="20">
         <f t="shared" si="15"/>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="M80" s="31">
         <f t="shared" si="19"/>
-        <v>0.63732139600357707</v>
+        <v>0.85167050722944093</v>
       </c>
       <c r="O80" s="18">
         <f t="shared" si="16"/>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="K81" s="19">
         <f t="shared" si="14"/>
-        <v>6.079514406277442E-2</v>
+        <v>0.92402404807821303</v>
       </c>
       <c r="L81" s="20">
         <f t="shared" si="15"/>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="M81" s="31">
         <f t="shared" si="19"/>
-        <v>0.67096240353362602</v>
+        <v>0.86742847318341076</v>
       </c>
       <c r="O81" s="18">
         <f t="shared" si="16"/>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="K82" s="19">
         <f t="shared" si="14"/>
-        <v>8.5676571194000947E-2</v>
+        <v>0.93301270189221941</v>
       </c>
       <c r="L82" s="20">
         <f t="shared" si="15"/>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="M82" s="31">
         <f t="shared" si="19"/>
-        <v>0.7041804315731105</v>
+        <v>0.88249690258459546</v>
       </c>
       <c r="O82" s="18">
         <f t="shared" si="16"/>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="K83" s="19">
         <f t="shared" si="14"/>
-        <v>0.11797904462036872</v>
+        <v>0.94147379642946349</v>
       </c>
       <c r="L83" s="20">
         <f t="shared" si="15"/>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="M83" s="31">
         <f t="shared" si="19"/>
-        <v>0.73674262725672479</v>
+        <v>0.8968300597468688</v>
       </c>
       <c r="O83" s="18">
         <f t="shared" si="16"/>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="K84" s="19">
         <f t="shared" si="14"/>
-        <v>0.15877701113633599</v>
+        <v>0.94939702314958352</v>
       </c>
       <c r="L84" s="20">
         <f t="shared" si="15"/>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="M84" s="31">
         <f t="shared" si="19"/>
-        <v>0.76841126701979257</v>
+        <v>0.91038391038914235</v>
       </c>
       <c r="O84" s="18">
         <f t="shared" si="16"/>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="K85" s="19">
         <f t="shared" si="14"/>
-        <v>0.20887836294174889</v>
+        <v>0.95677272882130049</v>
       </c>
       <c r="L85" s="20">
         <f t="shared" si="15"/>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="M85" s="31">
         <f t="shared" si="19"/>
-        <v>0.79894655691312477</v>
+        <v>0.92311634638663576</v>
       </c>
       <c r="O85" s="18">
         <f t="shared" si="16"/>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="K86" s="19">
         <f t="shared" si="14"/>
-        <v>0.26865722575302292</v>
+        <v>0.96359192728339371</v>
       </c>
       <c r="L86" s="20">
         <f t="shared" si="15"/>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="M86" s="31">
         <f t="shared" si="19"/>
-        <v>0.82810959057085953</v>
+        <v>0.93498740327045315</v>
       </c>
       <c r="O86" s="18">
         <f t="shared" si="16"/>
@@ -12668,7 +12668,7 @@
       </c>
       <c r="K87" s="19">
         <f t="shared" si="14"/>
-        <v>0.33788756097468126</v>
+        <v>0.9698463103929541</v>
       </c>
       <c r="L87" s="20">
         <f t="shared" si="15"/>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="M87" s="31">
         <f t="shared" si="19"/>
-        <v>0.85566541527947737</v>
+        <v>0.94595946890676541</v>
       </c>
       <c r="O87" s="18">
         <f t="shared" si="16"/>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="K88" s="19">
         <f t="shared" si="14"/>
-        <v>0.41560164280815265</v>
+        <v>0.97552825814757682</v>
       </c>
       <c r="L88" s="20">
         <f t="shared" si="15"/>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="M88" s="31">
         <f t="shared" si="19"/>
-        <v>0.88138615215245386</v>
+        <v>0.95599748183309996</v>
       </c>
       <c r="O88" s="18">
         <f t="shared" si="16"/>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="K89" s="19">
         <f t="shared" si="14"/>
-        <v>0.49999999999999994</v>
+        <v>0.98063084796915956</v>
       </c>
       <c r="L89" s="20">
         <f t="shared" si="15"/>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="M89" s="31">
         <f t="shared" si="19"/>
-        <v>0.90505411316220041</v>
+        <v>0.96506911778968041</v>
       </c>
       <c r="O89" s="18">
         <f t="shared" si="16"/>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="K90" s="19">
         <f t="shared" si="14"/>
-        <v>0.58843767972580707</v>
+        <v>0.98514786313799818</v>
       </c>
       <c r="L90" s="20">
         <f t="shared" si="15"/>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="M90" s="31">
         <f t="shared" si="19"/>
-        <v>0.92646485585688521</v>
+        <v>0.97314496305805098</v>
       </c>
       <c r="O90" s="18">
         <f t="shared" si="16"/>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="K91" s="19">
         <f t="shared" si="14"/>
-        <v>0.67750501850774181</v>
+        <v>0.98907380036690273</v>
       </c>
       <c r="L91" s="20">
         <f t="shared" si="15"/>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="M91" s="31">
         <f t="shared" si="19"/>
-        <v>0.94543011609531047</v>
+        <v>0.98019867330675525</v>
       </c>
       <c r="O91" s="18">
         <f t="shared" si="16"/>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="K92" s="19">
         <f t="shared" si="14"/>
-        <v>0.76320976478986391</v>
+        <v>0.99240387650610407</v>
       </c>
       <c r="L92" s="20">
         <f t="shared" si="15"/>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="M92" s="31">
         <f t="shared" si="19"/>
-        <v>0.96178056012743718</v>
+        <v>0.98620711674391626</v>
       </c>
       <c r="O92" s="18">
         <f t="shared" si="16"/>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="K93" s="19">
         <f t="shared" si="14"/>
-        <v>0.84125275081380402</v>
+        <v>0.99513403437078507</v>
       </c>
       <c r="L93" s="20">
         <f t="shared" si="15"/>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="M93" s="31">
         <f t="shared" si="19"/>
-        <v>0.97536829984550077</v>
+        <v>0.9911505004882849</v>
       </c>
       <c r="O93" s="18">
         <f t="shared" si="16"/>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="K94" s="19">
         <f t="shared" si="14"/>
-        <v>0.90737368630960291</v>
+        <v>0.99726094768413653</v>
       </c>
       <c r="L94" s="20">
         <f t="shared" si="15"/>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="M94" s="31">
         <f t="shared" si="19"/>
-        <v>0.98606911899821237</v>
+        <v>0.99501247919268232</v>
       </c>
       <c r="O94" s="18">
         <f t="shared" si="16"/>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="K95" s="19">
         <f t="shared" si="14"/>
-        <v>0.95772994812448309</v>
+        <v>0.99878202512991221</v>
       </c>
       <c r="L95" s="20">
         <f t="shared" si="15"/>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="M95" s="31">
         <f t="shared" si="19"/>
-        <v>0.99378436351867461</v>
+        <v>0.99778024508560637</v>
       </c>
       <c r="O95" s="18">
         <f t="shared" si="16"/>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="K96" s="19">
         <f t="shared" si="14"/>
-        <v>0.98926235142442132</v>
+        <v>0.99969541350954794</v>
       </c>
       <c r="L96" s="20">
         <f t="shared" si="15"/>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="M96" s="31">
         <f t="shared" si="19"/>
-        <v>0.99844245574053236</v>
+        <v>0.99944459873685809</v>
       </c>
       <c r="O96" s="18">
         <f t="shared" si="16"/>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="K98" s="19">
         <f t="shared" si="14"/>
-        <v>0.98926235142442132</v>
+        <v>0.99969541350954794</v>
       </c>
       <c r="L98" s="20">
         <f t="shared" si="15"/>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="M98" s="31">
         <f t="shared" si="19"/>
-        <v>0.99844245574053236</v>
+        <v>0.99944459873685809</v>
       </c>
       <c r="O98" s="18">
         <f t="shared" si="16"/>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="K99" s="19">
         <f t="shared" si="14"/>
-        <v>0.95772994812448309</v>
+        <v>0.99878202512991221</v>
       </c>
       <c r="L99" s="20">
         <f t="shared" si="15"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="M99" s="31">
         <f t="shared" si="19"/>
-        <v>0.99378436351867461</v>
+        <v>0.99778024508560637</v>
       </c>
       <c r="O99" s="18">
         <f t="shared" si="16"/>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="K100" s="19">
         <f t="shared" si="14"/>
-        <v>0.90737368630960291</v>
+        <v>0.99726094768413653</v>
       </c>
       <c r="L100" s="20">
         <f t="shared" si="15"/>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="M100" s="31">
         <f t="shared" si="19"/>
-        <v>0.98606911899821237</v>
+        <v>0.99501247919268232</v>
       </c>
       <c r="O100" s="18">
         <f t="shared" si="16"/>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="K101" s="19">
         <f t="shared" si="14"/>
-        <v>0.84125275081380402</v>
+        <v>0.99513403437078507</v>
       </c>
       <c r="L101" s="20">
         <f t="shared" si="15"/>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="M101" s="31">
         <f t="shared" si="19"/>
-        <v>0.97536829984550077</v>
+        <v>0.9911505004882849</v>
       </c>
       <c r="O101" s="18">
         <f t="shared" si="16"/>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="K102" s="19">
         <f t="shared" si="14"/>
-        <v>0.76320976478986391</v>
+        <v>0.99240387650610407</v>
       </c>
       <c r="L102" s="20">
         <f t="shared" si="15"/>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="M102" s="31">
         <f t="shared" si="19"/>
-        <v>0.96178056012743718</v>
+        <v>0.98620711674391626</v>
       </c>
       <c r="O102" s="18">
         <f t="shared" si="16"/>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="K103" s="19">
         <f t="shared" ref="K103:K134" si="22">$O103^D$15</f>
-        <v>0.67750501850774181</v>
+        <v>0.98907380036690273</v>
       </c>
       <c r="L103" s="20">
         <f t="shared" ref="L103:L134" si="23">$O103^E$15</f>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="M103" s="31">
         <f t="shared" si="19"/>
-        <v>0.94543011609531047</v>
+        <v>0.98019867330675525</v>
       </c>
       <c r="O103" s="18">
         <f t="shared" ref="O103:O134" si="24">COS(I103*PI()/180)</f>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="K104" s="19">
         <f t="shared" si="22"/>
-        <v>0.58843767972580707</v>
+        <v>0.98514786313799818</v>
       </c>
       <c r="L104" s="20">
         <f t="shared" si="23"/>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="M104" s="31">
         <f t="shared" si="19"/>
-        <v>0.92646485585688521</v>
+        <v>0.97314496305805098</v>
       </c>
       <c r="O104" s="18">
         <f t="shared" si="24"/>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="K105" s="19">
         <f t="shared" si="22"/>
-        <v>0.49999999999999994</v>
+        <v>0.98063084796915956</v>
       </c>
       <c r="L105" s="20">
         <f t="shared" si="23"/>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="M105" s="31">
         <f t="shared" si="19"/>
-        <v>0.90505411316220041</v>
+        <v>0.96506911778968041</v>
       </c>
       <c r="O105" s="18">
         <f t="shared" si="24"/>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="K106" s="19">
         <f t="shared" si="22"/>
-        <v>0.41560164280815265</v>
+        <v>0.97552825814757682</v>
       </c>
       <c r="L106" s="20">
         <f t="shared" si="23"/>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="M106" s="31">
         <f t="shared" si="19"/>
-        <v>0.88138615215245386</v>
+        <v>0.95599748183309996</v>
       </c>
       <c r="O106" s="18">
         <f t="shared" si="24"/>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="K107" s="19">
         <f t="shared" si="22"/>
-        <v>0.33788756097468126</v>
+        <v>0.9698463103929541</v>
       </c>
       <c r="L107" s="20">
         <f t="shared" si="23"/>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="M107" s="31">
         <f t="shared" si="19"/>
-        <v>0.85566541527947737</v>
+        <v>0.94595946890676541</v>
       </c>
       <c r="O107" s="18">
         <f t="shared" si="24"/>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="K108" s="19">
         <f t="shared" si="22"/>
-        <v>0.26865722575302292</v>
+        <v>0.96359192728339371</v>
       </c>
       <c r="L108" s="20">
         <f t="shared" si="23"/>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="M108" s="31">
         <f t="shared" si="19"/>
-        <v>0.82810959057085953</v>
+        <v>0.93498740327045315</v>
       </c>
       <c r="O108" s="18">
         <f t="shared" si="24"/>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="K109" s="19">
         <f t="shared" si="22"/>
-        <v>0.20887836294174889</v>
+        <v>0.95677272882130049</v>
       </c>
       <c r="L109" s="20">
         <f t="shared" si="23"/>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="M109" s="31">
         <f t="shared" si="19"/>
-        <v>0.79894655691312477</v>
+        <v>0.92311634638663576</v>
       </c>
       <c r="O109" s="18">
         <f t="shared" si="24"/>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="K110" s="19">
         <f t="shared" si="22"/>
-        <v>0.15877701113633599</v>
+        <v>0.94939702314958352</v>
       </c>
       <c r="L110" s="20">
         <f t="shared" si="23"/>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="M110" s="31">
         <f t="shared" si="19"/>
-        <v>0.76841126701979257</v>
+        <v>0.91038391038914235</v>
       </c>
       <c r="O110" s="18">
         <f t="shared" si="24"/>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="K111" s="19">
         <f t="shared" si="22"/>
-        <v>0.11797904462036872</v>
+        <v>0.94147379642946349</v>
       </c>
       <c r="L111" s="20">
         <f t="shared" si="23"/>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="M111" s="31">
         <f t="shared" si="19"/>
-        <v>0.73674262725672479</v>
+        <v>0.8968300597468688</v>
       </c>
       <c r="O111" s="18">
         <f t="shared" si="24"/>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="K112" s="19">
         <f t="shared" si="22"/>
-        <v>8.5676571194000947E-2</v>
+        <v>0.93301270189221941</v>
       </c>
       <c r="L112" s="20">
         <f t="shared" si="23"/>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="M112" s="31">
         <f t="shared" si="19"/>
-        <v>0.7041804315731105</v>
+        <v>0.88249690258459546</v>
       </c>
       <c r="O112" s="18">
         <f t="shared" si="24"/>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="K113" s="19">
         <f t="shared" si="22"/>
-        <v>6.079514406277442E-2</v>
+        <v>0.92402404807821303</v>
       </c>
       <c r="L113" s="20">
         <f t="shared" si="23"/>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="M113" s="31">
         <f t="shared" si="19"/>
-        <v>0.67096240353362602</v>
+        <v>0.86742847318341076</v>
       </c>
       <c r="O113" s="18">
         <f t="shared" si="24"/>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="K114" s="19">
         <f t="shared" si="22"/>
-        <v>4.2143202458471939E-2</v>
+        <v>0.9145187862775207</v>
       </c>
       <c r="L114" s="20">
         <f t="shared" si="23"/>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="M114" s="31">
         <f t="shared" si="19"/>
-        <v>0.63732139600357707</v>
+        <v>0.85167050722944093</v>
       </c>
       <c r="O114" s="18">
         <f t="shared" si="24"/>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="K115" s="19">
         <f t="shared" si="22"/>
-        <v>2.853201938696024E-2</v>
+        <v>0.90450849718747361</v>
       </c>
       <c r="L115" s="20">
         <f t="shared" si="23"/>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="M115" s="31">
         <f t="shared" si="19"/>
-        <v>0.60348279257294668</v>
+        <v>0.835270211411272</v>
       </c>
       <c r="O115" s="18">
         <f t="shared" si="24"/>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="K116" s="19">
         <f t="shared" si="22"/>
-        <v>1.8861243512506495E-2</v>
+        <v>0.89400537680336101</v>
       </c>
       <c r="L116" s="20">
         <f t="shared" si="23"/>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="M116" s="31">
         <f t="shared" si="19"/>
-        <v>0.56966214851014052</v>
+        <v>0.81827602898354923</v>
       </c>
       <c r="O116" s="18">
         <f t="shared" si="24"/>
@@ -13600,7 +13600,7 @@
       </c>
       <c r="K117" s="19">
         <f t="shared" si="22"/>
-        <v>1.2170800719542664E-2</v>
+        <v>0.88302222155948906</v>
       </c>
       <c r="L117" s="20">
         <f t="shared" si="23"/>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="M117" s="31">
         <f t="shared" si="19"/>
-        <v>0.53606310212134511</v>
+        <v>0.80073740291680806</v>
       </c>
       <c r="O117" s="18">
         <f t="shared" si="24"/>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="K118" s="19">
         <f t="shared" si="22"/>
-        <v>7.6638767614166286E-3</v>
+        <v>0.87157241273869712</v>
       </c>
       <c r="L118" s="20">
         <f t="shared" si="23"/>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="M118" s="31">
         <f t="shared" si="19"/>
-        <v>0.50287558007522504</v>
+        <v>0.78270453824186814</v>
       </c>
       <c r="O118" s="18">
         <f t="shared" si="24"/>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="K119" s="19">
         <f t="shared" si="22"/>
-        <v>4.7078094164431355E-3</v>
+        <v>0.85966990016932554</v>
       </c>
       <c r="L119" s="20">
         <f t="shared" si="23"/>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="M119" s="31">
         <f t="shared" si="19"/>
-        <v>0.47027431275480525</v>
+        <v>0.76422816517149039</v>
       </c>
       <c r="O119" s="18">
         <f t="shared" si="24"/>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="K120" s="19">
         <f t="shared" si="22"/>
-        <v>2.8202086754227488E-3</v>
+        <v>0.84732918522949874</v>
       </c>
       <c r="L120" s="20">
         <f t="shared" si="23"/>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="M120" s="31">
         <f t="shared" si="19"/>
-        <v>0.43841766823229861</v>
+        <v>0.74535930454298049</v>
       </c>
       <c r="O120" s="18">
         <f t="shared" si="24"/>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="K121" s="19">
         <f t="shared" si="22"/>
-        <v>1.6469360279551359E-3</v>
+        <v>0.83456530317942901</v>
       </c>
       <c r="L121" s="20">
         <f t="shared" si="23"/>
@@ -13724,7 +13724,7 @@
       </c>
       <c r="M121" s="31">
         <f t="shared" si="19"/>
-        <v>0.40744680622892498</v>
+        <v>0.72614903707369094</v>
       </c>
       <c r="O121" s="18">
         <f t="shared" si="24"/>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="K122" s="19">
         <f t="shared" si="22"/>
-        <v>9.3720812007158075E-4</v>
+        <v>0.82139380484326951</v>
       </c>
       <c r="L122" s="20">
         <f t="shared" si="23"/>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="M122" s="31">
         <f t="shared" si="19"/>
-        <v>0.3774851466022292</v>
+        <v>0.70664827785771622</v>
       </c>
       <c r="O122" s="18">
         <f t="shared" si="24"/>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="K123" s="19">
         <f t="shared" si="22"/>
-        <v>5.1949212716019468E-4</v>
+        <v>0.8078307376628292</v>
       </c>
       <c r="L123" s="20">
         <f t="shared" si="23"/>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="M123" s="31">
         <f t="shared" si="19"/>
-        <v>0.34863814065616983</v>
+        <v>0.68690755745738785</v>
       </c>
       <c r="O123" s="18">
         <f t="shared" si="24"/>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="K124" s="19">
         <f t="shared" si="22"/>
-        <v>2.8035854754709195E-4</v>
+        <v>0.79389262614623657</v>
       </c>
       <c r="L124" s="20">
         <f t="shared" si="23"/>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="M124" s="31">
         <f t="shared" si="19"/>
-        <v>0.32099332802504382</v>
+        <v>0.66697681085847438</v>
       </c>
       <c r="O124" s="18">
         <f t="shared" si="24"/>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="K125" s="19">
         <f t="shared" si="22"/>
-        <v>1.4724369164435084E-4</v>
+        <v>0.7795964517353734</v>
       </c>
       <c r="L125" s="20">
         <f t="shared" si="23"/>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="M125" s="31">
         <f t="shared" si="19"/>
-        <v>0.29462065714200303</v>
+        <v>0.64690517546435233</v>
       </c>
       <c r="O125" s="18">
         <f t="shared" si="24"/>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="K126" s="19">
         <f t="shared" si="22"/>
-        <v>7.5219598289675234E-5</v>
+        <v>0.76495963211660234</v>
       </c>
       <c r="L126" s="20">
         <f t="shared" si="23"/>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="M126" s="31">
         <f t="shared" si="19"/>
-        <v>0.26957304343619598</v>
+        <v>0.62674079920299297</v>
       </c>
       <c r="O126" s="18">
         <f t="shared" si="24"/>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="K127" s="19">
         <f t="shared" si="22"/>
-        <v>3.7356530686863316E-5</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="L127" s="20">
         <f t="shared" si="23"/>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="M127" s="31">
         <f t="shared" si="19"/>
-        <v>0.2458871364479599</v>
+        <v>0.60653065971263342</v>
       </c>
       <c r="O127" s="18">
         <f t="shared" si="24"/>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="K128" s="19">
         <f t="shared" si="22"/>
-        <v>1.8025972811456483E-5</v>
+        <v>0.73473578139294538</v>
       </c>
       <c r="L128" s="20">
         <f t="shared" si="23"/>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="M128" s="31">
         <f t="shared" si="19"/>
-        <v>0.22358426501737388</v>
+        <v>0.58632039545869852</v>
       </c>
       <c r="O128" s="18">
         <f t="shared" si="24"/>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="K129" s="19">
         <f t="shared" si="22"/>
-        <v>8.4463237360723854E-6</v>
+        <v>0.71918557339453859</v>
       </c>
       <c r="L129" s="20">
         <f t="shared" si="23"/>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="M129" s="31">
         <f t="shared" si="19"/>
-        <v>0.20267152856820067</v>
+        <v>0.56615414951719756</v>
       </c>
       <c r="O129" s="18">
         <f t="shared" si="24"/>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="K130" s="19">
         <f t="shared" si="22"/>
-        <v>3.8405864742792049E-6</v>
+        <v>0.70336832153790008</v>
       </c>
       <c r="L130" s="20">
         <f t="shared" si="23"/>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="M130" s="31">
         <f t="shared" si="19"/>
-        <v>0.18314300223195479</v>
+        <v>0.5460744266397094</v>
       </c>
       <c r="O130" s="18">
         <f t="shared" si="24"/>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="K131" s="19">
         <f t="shared" si="22"/>
-        <v>1.6935378171519319E-6</v>
+        <v>0.68730329670795587</v>
       </c>
       <c r="L131" s="20">
         <f t="shared" si="23"/>
@@ -14014,7 +14014,7 @@
       </c>
       <c r="M131" s="31">
         <f t="shared" si="19"/>
-        <v>0.16498102406912385</v>
+        <v>0.52612196409345646</v>
       </c>
       <c r="O131" s="18">
         <f t="shared" si="24"/>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K132" s="19">
         <f t="shared" si="22"/>
-        <v>7.2368250513669133E-7</v>
+        <v>0.67101007166283433</v>
       </c>
       <c r="L132" s="20">
         <f t="shared" si="23"/>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="M132" s="31">
         <f t="shared" si="19"/>
-        <v>0.14815753386242878</v>
+        <v>0.50633561664810056</v>
       </c>
       <c r="O132" s="18">
         <f t="shared" si="24"/>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="K133" s="19">
         <f t="shared" si="22"/>
-        <v>2.9945094932764976E-7</v>
+        <v>0.65450849718747373</v>
       </c>
       <c r="L133" s="20">
         <f t="shared" si="23"/>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="M133" s="31">
         <f t="shared" si="19"/>
-        <v>0.13263543478318265</v>
+        <v>0.48675225595997168</v>
       </c>
       <c r="O133" s="18">
         <f t="shared" si="24"/>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="K134" s="19">
         <f t="shared" si="22"/>
-        <v>1.1988789210395961E-7</v>
+        <v>0.63781867790849944</v>
       </c>
       <c r="L134" s="20">
         <f t="shared" si="23"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="M134" s="31">
         <f t="shared" si="19"/>
-        <v>0.11836995156012713</v>
+        <v>0.4674066844856189</v>
       </c>
       <c r="O134" s="18">
         <f t="shared" si="24"/>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="K135" s="19">
         <f t="shared" ref="K135:K166" si="26">$O135^D$15</f>
-        <v>4.6400424502856311E-8</v>
+        <v>0.62096094779983391</v>
       </c>
       <c r="L135" s="20">
         <f t="shared" ref="L135:L166" si="27">$O135^E$15</f>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="M135" s="31">
         <f t="shared" si="19"/>
-        <v>0.10530996149983259</v>
+        <v>0.44833156394094303</v>
       </c>
       <c r="O135" s="18">
         <f t="shared" ref="O135:O166" si="28">COS(I135*PI()/180)</f>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="K136" s="19">
         <f t="shared" si="26"/>
-        <v>1.7344681535928216E-8</v>
+        <v>0.60395584540887959</v>
       </c>
       <c r="L136" s="20">
         <f t="shared" si="27"/>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="M136" s="31">
         <f t="shared" ref="M136:M187" si="29">EXP(-0.5*(I136^2)/(F$19^2))</f>
-        <v>9.3399277707508707E-2</v>
+        <v>0.42955735821073915</v>
       </c>
       <c r="O136" s="18">
         <f t="shared" si="28"/>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="K137" s="19">
         <f t="shared" si="26"/>
-        <v>6.2558038685430222E-9</v>
+        <v>0.58682408883346504</v>
       </c>
       <c r="L137" s="20">
         <f t="shared" si="27"/>
@@ -14188,7 +14188,7 @@
       </c>
       <c r="M137" s="31">
         <f t="shared" si="29"/>
-        <v>8.2577867028647695E-2</v>
+        <v>0.41111229050718745</v>
       </c>
       <c r="O137" s="18">
         <f t="shared" si="28"/>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="K138" s="19">
         <f t="shared" si="26"/>
-        <v>2.1747979039233984E-9</v>
+        <v>0.56958655048003282</v>
       </c>
       <c r="L138" s="20">
         <f t="shared" si="27"/>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="M138" s="31">
         <f t="shared" si="29"/>
-        <v>7.2782988473336752E-2</v>
+        <v>0.393022314475509</v>
       </c>
       <c r="O138" s="18">
         <f t="shared" si="28"/>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="K139" s="19">
         <f t="shared" si="26"/>
-        <v>7.2793048550301895E-10</v>
+        <v>0.55226423163382665</v>
       </c>
       <c r="L139" s="20">
         <f t="shared" si="27"/>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="M139" s="31">
         <f t="shared" si="29"/>
-        <v>6.3950241103259434E-2</v>
+        <v>0.37531109885139957</v>
       </c>
       <c r="O139" s="18">
         <f t="shared" si="28"/>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="K140" s="19">
         <f t="shared" si="26"/>
-        <v>2.3430391966216697E-10</v>
+        <v>0.53487823687206271</v>
       </c>
       <c r="L140" s="20">
         <f t="shared" si="27"/>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="M140" s="31">
         <f t="shared" si="29"/>
-        <v>5.6014513474192264E-2</v>
+        <v>0.35800002518859969</v>
       </c>
       <c r="O140" s="18">
         <f t="shared" si="28"/>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="K141" s="19">
         <f t="shared" si="26"/>
-        <v>7.2432873549647532E-11</v>
+        <v>0.51744974835125057</v>
       </c>
       <c r="L141" s="20">
         <f t="shared" si="27"/>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="M141" s="31">
         <f t="shared" si="29"/>
-        <v>4.891082966439983E-2</v>
+        <v>0.34110819809659199</v>
       </c>
       <c r="O141" s="18">
         <f t="shared" si="28"/>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="K142" s="19">
         <f t="shared" si="26"/>
-        <v>2.1476705522810528E-11</v>
+        <v>0.5</v>
       </c>
       <c r="L142" s="20">
         <f t="shared" si="27"/>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="M142" s="31">
         <f t="shared" si="29"/>
-        <v>4.2575089625102466E-2</v>
+        <v>0.32465246735834974</v>
       </c>
       <c r="O142" s="18">
         <f t="shared" si="28"/>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="K143" s="19">
         <f t="shared" si="26"/>
-        <v>6.0987759338418334E-12</v>
+        <v>0.48255025164874954</v>
       </c>
       <c r="L143" s="20">
         <f t="shared" si="27"/>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="M143" s="31">
         <f t="shared" si="29"/>
-        <v>3.6944704019972761E-2</v>
+        <v>0.30864746123661896</v>
       </c>
       <c r="O143" s="18">
         <f t="shared" si="28"/>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="K144" s="19">
         <f t="shared" si="26"/>
-        <v>1.6560836445449307E-12</v>
+        <v>0.46512176312793718</v>
       </c>
       <c r="L144" s="20">
         <f t="shared" si="27"/>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="M144" s="31">
         <f t="shared" si="29"/>
-        <v>3.1959125846458332E-2</v>
+        <v>0.29310563022459868</v>
       </c>
       <c r="O144" s="18">
         <f t="shared" si="28"/>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="K145" s="19">
         <f t="shared" si="26"/>
-        <v>4.2929707888527282E-13</v>
+        <v>0.44773576836617318</v>
       </c>
       <c r="L145" s="20">
         <f t="shared" si="27"/>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="M145" s="31">
         <f t="shared" si="29"/>
-        <v>2.7560282935249758E-2</v>
+        <v>0.27803730045319414</v>
       </c>
       <c r="O145" s="18">
         <f t="shared" si="28"/>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="K146" s="19">
         <f t="shared" si="26"/>
-        <v>1.0604407868919944E-13</v>
+        <v>0.43041344951996718</v>
       </c>
       <c r="L146" s="20">
         <f t="shared" si="27"/>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="M146" s="31">
         <f t="shared" si="29"/>
-        <v>2.3692916899578035E-2</v>
+        <v>0.26345073593225671</v>
       </c>
       <c r="O146" s="18">
         <f t="shared" si="28"/>
@@ -14470,7 +14470,7 @@
       </c>
       <c r="K147" s="19">
         <f t="shared" si="26"/>
-        <v>2.4912906858788226E-14</v>
+        <v>0.41317591116653474</v>
       </c>
       <c r="L147" s="20">
         <f t="shared" si="27"/>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="M147" s="31">
         <f t="shared" si="29"/>
-        <v>2.0304835257654582E-2</v>
+        <v>0.24935220877729622</v>
       </c>
       <c r="O147" s="18">
         <f t="shared" si="28"/>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="K148" s="19">
         <f t="shared" si="26"/>
-        <v>5.5547235495362182E-15</v>
+        <v>0.3960441545911203</v>
       </c>
       <c r="L148" s="20">
         <f t="shared" si="27"/>
@@ -14507,7 +14507,7 @@
       </c>
       <c r="M148" s="31">
         <f t="shared" si="29"/>
-        <v>1.734708429265823E-2</v>
+        <v>0.23574607655586352</v>
       </c>
       <c r="O148" s="18">
         <f t="shared" si="28"/>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="K149" s="19">
         <f t="shared" si="26"/>
-        <v>1.172784576672525E-15</v>
+        <v>0.37903905220016604</v>
       </c>
       <c r="L149" s="20">
         <f t="shared" si="27"/>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="M149" s="31">
         <f t="shared" si="29"/>
-        <v>1.4774050765611954E-2</v>
+        <v>0.22263486587889095</v>
       </c>
       <c r="O149" s="18">
         <f t="shared" si="28"/>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="K150" s="19">
         <f t="shared" si="26"/>
-        <v>2.3389928393251342E-16</v>
+        <v>0.36218132209150039</v>
       </c>
       <c r="L150" s="20">
         <f t="shared" si="27"/>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="M150" s="31">
         <f t="shared" si="29"/>
-        <v>1.2543500883227357E-2</v>
+        <v>0.21001936136138818</v>
       </c>
       <c r="O150" s="18">
         <f t="shared" si="28"/>
@@ -14586,7 +14586,7 @@
       </c>
       <c r="K151" s="19">
         <f t="shared" si="26"/>
-        <v>4.3948306122125396E-17</v>
+        <v>0.34549150281252622</v>
       </c>
       <c r="L151" s="20">
         <f t="shared" si="27"/>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="M151" s="31">
         <f t="shared" si="29"/>
-        <v>1.0616564975249643E-2</v>
+        <v>0.19789869908361465</v>
       </c>
       <c r="O151" s="18">
         <f t="shared" si="28"/>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="K152" s="19">
         <f t="shared" si="26"/>
-        <v>7.7572252501993409E-18</v>
+        <v>0.32898992833716567</v>
       </c>
       <c r="L152" s="20">
         <f t="shared" si="27"/>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="M152" s="31">
         <f t="shared" si="29"/>
-        <v>8.9576761863939397E-3</v>
+        <v>0.18627046369770089</v>
       </c>
       <c r="O152" s="18">
         <f t="shared" si="28"/>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="K153" s="19">
         <f t="shared" si="26"/>
-        <v>1.2822104113234797E-18</v>
+        <v>0.31269670329204391</v>
       </c>
       <c r="L153" s="20">
         <f t="shared" si="27"/>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="M153" s="31">
         <f t="shared" si="29"/>
-        <v>7.534471170099994E-3</v>
+        <v>0.17513078834515097</v>
       </c>
       <c r="O153" s="18">
         <f t="shared" si="28"/>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="K154" s="19">
         <f t="shared" si="26"/>
-        <v>1.9779463464769173E-19</v>
+        <v>0.29663167846209992</v>
       </c>
       <c r="L154" s="20">
         <f t="shared" si="27"/>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="M154" s="31">
         <f t="shared" si="29"/>
-        <v>6.3176603183892309E-3</v>
+        <v>0.1644744565771549</v>
       </c>
       <c r="O154" s="18">
         <f t="shared" si="28"/>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="K155" s="19">
         <f t="shared" si="26"/>
-        <v>2.8369166203881151E-20</v>
+        <v>0.28081442660546113</v>
       </c>
       <c r="L155" s="20">
         <f t="shared" si="27"/>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="M155" s="31">
         <f t="shared" si="29"/>
-        <v>5.2808745062749157E-3</v>
+        <v>0.15429500550156833</v>
       </c>
       <c r="O155" s="18">
         <f t="shared" si="28"/>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="K156" s="19">
         <f t="shared" si="26"/>
-        <v>3.7676739327806769E-21</v>
+        <v>0.26526421860705468</v>
       </c>
       <c r="L156" s="20">
         <f t="shared" si="27"/>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="M156" s="31">
         <f t="shared" si="29"/>
-        <v>4.4004947006446157E-3</v>
+        <v>0.14458482941715711</v>
       </c>
       <c r="O156" s="18">
         <f t="shared" si="28"/>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="K157" s="19">
         <f t="shared" si="26"/>
-        <v>4.6124888011352357E-22</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="L157" s="20">
         <f t="shared" si="27"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="M157" s="31">
         <f t="shared" si="29"/>
-        <v>3.6554701098643798E-3</v>
+        <v>0.1353352832366127</v>
       </c>
       <c r="O157" s="18">
         <f t="shared" si="28"/>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="K158" s="19">
         <f t="shared" si="26"/>
-        <v>5.1793115795918545E-23</v>
+        <v>0.23504036788339755</v>
       </c>
       <c r="L158" s="20">
         <f t="shared" si="27"/>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="M158" s="31">
         <f t="shared" si="29"/>
-        <v>3.0271298560238073E-3</v>
+        <v>0.12653678504427179</v>
       </c>
       <c r="O158" s="18">
         <f t="shared" si="28"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="K159" s="19">
         <f t="shared" si="26"/>
-        <v>5.3050994094741039E-24</v>
+        <v>0.22040354826462655</v>
       </c>
       <c r="L159" s="20">
         <f t="shared" si="27"/>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="M159" s="31">
         <f t="shared" si="29"/>
-        <v>2.4989924578705035E-3</v>
+        <v>0.11817891718178056</v>
       </c>
       <c r="O159" s="18">
         <f t="shared" si="28"/>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="K160" s="19">
         <f t="shared" si="26"/>
-        <v>4.9265990366534905E-25</v>
+        <v>0.20610737385376335</v>
       </c>
       <c r="L160" s="20">
         <f t="shared" si="27"/>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="M160" s="31">
         <f t="shared" si="29"/>
-        <v>2.0565767367218338E-3</v>
+        <v>0.11025052530448522</v>
       </c>
       <c r="O160" s="18">
         <f t="shared" si="28"/>
@@ -14876,7 +14876,7 @@
       </c>
       <c r="K161" s="19">
         <f t="shared" si="26"/>
-        <v>4.1198206324568006E-26</v>
+        <v>0.19216926233717083</v>
       </c>
       <c r="L161" s="20">
         <f t="shared" si="27"/>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="M161" s="31">
         <f t="shared" si="29"/>
-        <v>1.6872171141920865E-3</v>
+        <v>0.10273981490249434</v>
       </c>
       <c r="O161" s="18">
         <f t="shared" si="28"/>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="K162" s="19">
         <f t="shared" si="26"/>
-        <v>3.0788065817813101E-27</v>
+        <v>0.17860619515673026</v>
       </c>
       <c r="L162" s="20">
         <f t="shared" si="27"/>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="M162" s="31">
         <f t="shared" si="29"/>
-        <v>1.379885670322223E-3</v>
+        <v>9.5634444832538607E-2</v>
       </c>
       <c r="O162" s="18">
         <f t="shared" si="28"/>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="K163" s="19">
         <f t="shared" si="26"/>
-        <v>2.0386773714315746E-28</v>
+        <v>0.16543469682057083</v>
       </c>
       <c r="L163" s="20">
         <f t="shared" si="27"/>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="M163" s="31">
         <f t="shared" si="29"/>
-        <v>1.1250227814466923E-3</v>
+        <v>8.8921617459386343E-2</v>
       </c>
       <c r="O163" s="18">
         <f t="shared" si="28"/>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="K164" s="19">
         <f t="shared" si="26"/>
-        <v>1.1846492814285038E-29</v>
+        <v>0.15267081477050143</v>
       </c>
       <c r="L164" s="20">
         <f t="shared" si="27"/>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="M164" s="31">
         <f t="shared" si="29"/>
-        <v>9.1437766388058946E-4</v>
+        <v>8.2588165058114921E-2</v>
       </c>
       <c r="O164" s="18">
         <f t="shared" si="28"/>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="K165" s="19">
         <f t="shared" si="26"/>
-        <v>5.9752919472960749E-31</v>
+        <v>0.14033009983067429</v>
       </c>
       <c r="L165" s="20">
         <f t="shared" si="27"/>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="M165" s="31">
         <f t="shared" si="29"/>
-        <v>7.4085971480158247E-4</v>
+        <v>7.6620632180493489E-2</v>
       </c>
       <c r="O165" s="18">
         <f t="shared" si="28"/>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="K166" s="19">
         <f t="shared" si="26"/>
-        <v>2.5837158273306758E-32</v>
+        <v>0.12842758726130291</v>
       </c>
       <c r="L166" s="20">
         <f t="shared" si="27"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="M166" s="31">
         <f t="shared" si="29"/>
-        <v>5.9840116597345073E-4</v>
+        <v>7.1005353739636984E-2</v>
       </c>
       <c r="O166" s="18">
         <f t="shared" si="28"/>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="K167" s="19">
         <f t="shared" ref="K167:K187" si="32">$O167^D$15</f>
-        <v>9.4414908712928083E-34</v>
+        <v>0.11697777844051101</v>
       </c>
       <c r="L167" s="20">
         <f t="shared" ref="L167:L187" si="33">$O167^E$15</f>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="M167" s="31">
         <f t="shared" si="29"/>
-        <v>4.8183124791345203E-4</v>
+        <v>6.5728528616530474E-2</v>
       </c>
       <c r="O167" s="18">
         <f t="shared" ref="O167:O187" si="34">COS(I167*PI()/180)</f>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="K168" s="19">
         <f t="shared" si="32"/>
-        <v>2.8680270855202653E-35</v>
+        <v>0.10599462319663902</v>
       </c>
       <c r="L168" s="20">
         <f t="shared" si="33"/>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="M168" s="31">
         <f t="shared" si="29"/>
-        <v>3.867617990672103E-4</v>
+        <v>6.0776288639624185E-2</v>
       </c>
       <c r="O168" s="18">
         <f t="shared" si="34"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="K169" s="19">
         <f t="shared" si="32"/>
-        <v>7.1046870909461545E-37</v>
+        <v>9.5491502812526247E-2</v>
       </c>
       <c r="L169" s="20">
         <f t="shared" si="33"/>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="M169" s="31">
         <f t="shared" si="29"/>
-        <v>3.0948404280454068E-4</v>
+        <v>5.6134762834133725E-2</v>
       </c>
       <c r="O169" s="18">
         <f t="shared" si="34"/>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="K170" s="19">
         <f t="shared" si="32"/>
-        <v>1.4033535227315424E-38</v>
+        <v>8.548121372247916E-2</v>
       </c>
       <c r="L170" s="20">
         <f t="shared" si="33"/>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="M170" s="31">
         <f t="shared" si="29"/>
-        <v>2.468760901393659E-4</v>
+        <v>5.1790136880673451E-2</v>
       </c>
       <c r="O170" s="18">
         <f t="shared" si="34"/>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="K171" s="19">
         <f t="shared" si="32"/>
-        <v>2.1523505442775582E-40</v>
+        <v>7.597595192178698E-2</v>
       </c>
       <c r="L171" s="20">
         <f t="shared" si="33"/>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="M171" s="31">
         <f t="shared" si="29"/>
-        <v>1.9632060310363321E-4</v>
+        <v>4.7728707763164152E-2</v>
       </c>
       <c r="O171" s="18">
         <f t="shared" si="34"/>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="K172" s="19">
         <f t="shared" si="32"/>
-        <v>2.4831821166632991E-42</v>
+        <v>6.6987298107780646E-2</v>
       </c>
       <c r="L172" s="20">
         <f t="shared" si="33"/>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="M172" s="31">
         <f t="shared" si="29"/>
-        <v>1.5563196754935903E-4</v>
+        <v>4.393693362340742E-2</v>
       </c>
       <c r="O172" s="18">
         <f t="shared" si="34"/>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="K173" s="19">
         <f t="shared" si="32"/>
-        <v>2.074072704508442E-44</v>
+        <v>5.8526203570536582E-2</v>
       </c>
       <c r="L173" s="20">
         <f t="shared" si="33"/>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="M173" s="31">
         <f t="shared" si="29"/>
-        <v>1.2299226967785485E-4</v>
+        <v>4.0401478874163239E-2</v>
       </c>
       <c r="O173" s="18">
         <f t="shared" si="34"/>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="K174" s="19">
         <f t="shared" si="32"/>
-        <v>1.1968122081335141E-46</v>
+        <v>5.0602976850416446E-2</v>
       </c>
       <c r="L174" s="20">
         <f t="shared" si="33"/>
@@ -15261,7 +15261,7 @@
       </c>
       <c r="M174" s="31">
         <f t="shared" si="29"/>
-        <v>9.6895342807194591E-5</v>
+        <v>3.7109254653904883E-2</v>
       </c>
       <c r="O174" s="18">
         <f t="shared" si="34"/>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="K175" s="19">
         <f t="shared" si="32"/>
-        <v>4.5018432797075267E-49</v>
+        <v>4.322727117869956E-2</v>
       </c>
       <c r="L175" s="20">
         <f t="shared" si="33"/>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="M175" s="31">
         <f t="shared" si="29"/>
-        <v>7.60981450615463E-5</v>
+        <v>3.4047454734599344E-2</v>
       </c>
       <c r="O175" s="18">
         <f t="shared" si="34"/>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="K176" s="19">
         <f t="shared" si="32"/>
-        <v>1.0258785005006591E-51</v>
+        <v>3.6408072716606302E-2</v>
       </c>
       <c r="L176" s="20">
         <f t="shared" si="33"/>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="M176" s="31">
         <f t="shared" si="29"/>
-        <v>5.9578740429523322E-5</v>
+        <v>3.1203587018849094E-2</v>
       </c>
       <c r="O176" s="18">
         <f t="shared" si="34"/>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="K177" s="19">
         <f t="shared" si="32"/>
-        <v>1.2888539247859851E-54</v>
+        <v>3.0153689607045807E-2</v>
       </c>
       <c r="L177" s="20">
         <f t="shared" si="33"/>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="M177" s="31">
         <f t="shared" si="29"/>
-        <v>4.6500181040329523E-5</v>
+        <v>2.8565500784550377E-2</v>
       </c>
       <c r="O177" s="18">
         <f t="shared" si="34"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="K178" s="19">
         <f t="shared" si="32"/>
-        <v>7.8850240872812441E-58</v>
+        <v>2.447174185242321E-2</v>
       </c>
       <c r="L178" s="20">
         <f t="shared" si="33"/>
@@ -15377,7 +15377,7 @@
       </c>
       <c r="M178" s="31">
         <f t="shared" si="29"/>
-        <v>3.6179624043472693E-5</v>
+        <v>2.6121409853918233E-2</v>
       </c>
       <c r="O178" s="18">
         <f t="shared" si="34"/>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="K179" s="19">
         <f t="shared" si="32"/>
-        <v>1.9855385563197709E-61</v>
+        <v>1.9369152030840622E-2</v>
       </c>
       <c r="L179" s="20">
         <f t="shared" si="33"/>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="M179" s="31">
         <f t="shared" si="29"/>
-        <v>2.8062059109365606E-5</v>
+        <v>2.3859911879380247E-2</v>
       </c>
       <c r="O179" s="18">
         <f t="shared" si="34"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="K180" s="19">
         <f t="shared" si="32"/>
-        <v>1.6257689559823468E-65</v>
+        <v>1.4852136862001758E-2</v>
       </c>
       <c r="L180" s="20">
         <f t="shared" si="33"/>
@@ -15435,7 +15435,7 @@
       </c>
       <c r="M180" s="31">
         <f t="shared" si="29"/>
-        <v>2.1698069709069969E-5</v>
+        <v>2.1770003951548354E-2</v>
       </c>
       <c r="O180" s="18">
         <f t="shared" si="34"/>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="K181" s="19">
         <f t="shared" si="32"/>
-        <v>3.0648779189638164E-70</v>
+        <v>1.0926199633097166E-2</v>
       </c>
       <c r="L181" s="20">
         <f t="shared" si="33"/>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="M181" s="31">
         <f t="shared" si="29"/>
-        <v>1.6725100832451434E-5</v>
+        <v>1.9841094744370288E-2</v>
       </c>
       <c r="O181" s="18">
         <f t="shared" si="34"/>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="K182" s="19">
         <f t="shared" si="32"/>
-        <v>7.7892403486357351E-76</v>
+        <v>7.5961234938959551E-3</v>
       </c>
       <c r="L182" s="20">
         <f t="shared" si="33"/>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="M182" s="31">
         <f t="shared" si="29"/>
-        <v>1.2851755921697797E-5</v>
+        <v>1.8063013419781275E-2</v>
       </c>
       <c r="O182" s="18">
         <f t="shared" si="34"/>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="K183" s="19">
         <f t="shared" si="32"/>
-        <v>1.0886471808131194E-82</v>
+        <v>4.8659656292148606E-3</v>
       </c>
       <c r="L183" s="20">
         <f t="shared" si="33"/>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="M183" s="31">
         <f t="shared" si="29"/>
-        <v>9.8446951572396325E-6</v>
+        <v>1.6426015518885544E-2</v>
       </c>
       <c r="O183" s="18">
         <f t="shared" si="34"/>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="K184" s="19">
         <f t="shared" si="32"/>
-        <v>1.5579816002341329E-91</v>
+        <v>2.7390523158633438E-3</v>
       </c>
       <c r="L184" s="20">
         <f t="shared" si="33"/>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="M184" s="31">
         <f t="shared" si="29"/>
-        <v>7.5177547897290968E-6</v>
+        <v>1.4920786069067842E-2</v>
       </c>
       <c r="O184" s="18">
         <f t="shared" si="34"/>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="K185" s="19">
         <f t="shared" si="32"/>
-        <v>5.2429945828898957E-104</v>
+        <v>1.2179748700878812E-3</v>
       </c>
       <c r="L185" s="20">
         <f t="shared" si="33"/>
@@ -15580,7 +15580,7 @@
       </c>
       <c r="M185" s="31">
         <f t="shared" si="29"/>
-        <v>5.7229522049724446E-6</v>
+        <v>1.3538440136652357E-2</v>
       </c>
       <c r="O185" s="18">
         <f t="shared" si="34"/>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="K186" s="19">
         <f t="shared" si="32"/>
-        <v>2.4445743601939591E-125</v>
+        <v>3.0458649045212951E-4</v>
       </c>
       <c r="L186" s="20">
         <f t="shared" si="33"/>
@@ -15609,7 +15609,7 @@
       </c>
       <c r="M186" s="31">
         <f t="shared" si="29"/>
-        <v>4.343083322435166E-6</v>
+        <v>1.227052105297825E-2</v>
       </c>
       <c r="O186" s="18">
         <f t="shared" si="34"/>
@@ -15630,7 +15630,7 @@
       </c>
       <c r="K187" s="19">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3.7524718414124151E-33</v>
       </c>
       <c r="L187" s="20">
         <f t="shared" si="33"/>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="M187" s="31">
         <f t="shared" si="29"/>
-        <v>3.2856574492373478E-6</v>
+        <v>1.1108996538242306E-2</v>
       </c>
       <c r="O187" s="18">
         <f t="shared" si="34"/>
